--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -5,17 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HanSir\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFCA\000\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 08-09" sheetId="5" r:id="rId1"/>
+    <sheet name="Week 20-21" sheetId="6" r:id="rId1"/>
+    <sheet name="Week 08-09" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 08-09'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 08-09'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>MORNING</t>
   </si>
@@ -106,6 +107,50 @@
   </si>
   <si>
     <t>平顶山银行无纸化</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>（外出）</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>© 2017 PAPERLESS LLC</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIWEEKLY WORK SCHEDULE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒天明泽基金无纸化现场支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>新员工培训</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>与外包公司商讨外包事宜</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津融宝支付上线申请</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休半天</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目整理，产品升级讨论</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -121,7 +166,7 @@
     <numFmt numFmtId="180" formatCode="&quot;Week &quot;00"/>
     <numFmt numFmtId="181" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,6 +294,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="6">
@@ -565,7 +617,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -646,12 +698,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -672,10 +719,18 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -959,7 +1014,1000 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="1" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="19"/>
+      <c r="G1" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42870</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+      <c r="N2" s="20"/>
+      <c r="O2" s="20"/>
+    </row>
+    <row r="3" spans="1:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42870</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>20</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="45">
+        <v>2016</v>
+      </c>
+      <c r="M3" s="46"/>
+      <c r="N3" s="20"/>
+      <c r="O3" s="20"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="47">
+        <f>DATE(L3,I3,1)</f>
+        <v>42491</v>
+      </c>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42870</v>
+      </c>
+      <c r="C6" s="43"/>
+      <c r="D6" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="14"/>
+      <c r="G6" s="35">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v>42491</v>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42492</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42493</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42494</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42495</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42496</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42497</v>
+      </c>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="50">
+        <f>E2</f>
+        <v>42870</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42498</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42499</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42500</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42501</v>
+      </c>
+      <c r="K7" s="35">
+        <f>IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42502</v>
+      </c>
+      <c r="L7" s="35">
+        <f>IF(K7="","",IF(MONTH(K7+1)&lt;&gt;MONTH(K7),"",K7+1))</f>
+        <v>42503</v>
+      </c>
+      <c r="M7" s="35">
+        <f>IF(L7="","",IF(MONTH(L7+1)&lt;&gt;MONTH(L7),"",L7+1))</f>
+        <v>42504</v>
+      </c>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="G8" s="35">
+        <f>IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42505</v>
+      </c>
+      <c r="H8" s="35">
+        <f>IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42506</v>
+      </c>
+      <c r="I8" s="35">
+        <f>IF(H8="","",IF(MONTH(H8+1)&lt;&gt;MONTH(H8),"",H8+1))</f>
+        <v>42507</v>
+      </c>
+      <c r="J8" s="35">
+        <f>IF(I8="","",IF(MONTH(I8+1)&lt;&gt;MONTH(I8),"",I8+1))</f>
+        <v>42508</v>
+      </c>
+      <c r="K8" s="35">
+        <f>IF(J8="","",IF(MONTH(J8+1)&lt;&gt;MONTH(J8),"",J8+1))</f>
+        <v>42509</v>
+      </c>
+      <c r="L8" s="35">
+        <f>IF(K8="","",IF(MONTH(K8+1)&lt;&gt;MONTH(K8),"",K8+1))</f>
+        <v>42510</v>
+      </c>
+      <c r="M8" s="35">
+        <f>IF(L8="","",IF(MONTH(L8+1)&lt;&gt;MONTH(L8),"",L8+1))</f>
+        <v>42511</v>
+      </c>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+    </row>
+    <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="51"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f>IF(M8="","",IF(MONTH(M8+1)&lt;&gt;MONTH(M8),"",M8+1))</f>
+        <v>42512</v>
+      </c>
+      <c r="H9" s="35">
+        <f>IF(G9="","",IF(MONTH(G9+1)&lt;&gt;MONTH(G9),"",G9+1))</f>
+        <v>42513</v>
+      </c>
+      <c r="I9" s="35">
+        <f>IF(H9="","",IF(MONTH(H9+1)&lt;&gt;MONTH(H9),"",H9+1))</f>
+        <v>42514</v>
+      </c>
+      <c r="J9" s="35">
+        <f>IF(I9="","",IF(MONTH(I9+1)&lt;&gt;MONTH(I9),"",I9+1))</f>
+        <v>42515</v>
+      </c>
+      <c r="K9" s="35">
+        <f>IF(J9="","",IF(MONTH(J9+1)&lt;&gt;MONTH(J9),"",J9+1))</f>
+        <v>42516</v>
+      </c>
+      <c r="L9" s="35">
+        <f>IF(K9="","",IF(MONTH(K9+1)&lt;&gt;MONTH(K9),"",K9+1))</f>
+        <v>42517</v>
+      </c>
+      <c r="M9" s="35">
+        <f>IF(L9="","",IF(MONTH(L9+1)&lt;&gt;MONTH(L9),"",L9+1))</f>
+        <v>42518</v>
+      </c>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+    </row>
+    <row r="10" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3"/>
+      <c r="G10" s="35">
+        <f>IF(M9="","",IF(MONTH(M9+1)&lt;&gt;MONTH(M9),"",M9+1))</f>
+        <v>42519</v>
+      </c>
+      <c r="H10" s="35">
+        <f>IF(G10="","",IF(MONTH(G10+1)&lt;&gt;MONTH(G10),"",G10+1))</f>
+        <v>42520</v>
+      </c>
+      <c r="I10" s="35">
+        <f>IF(H10="","",IF(MONTH(H10+1)&lt;&gt;MONTH(H10),"",H10+1))</f>
+        <v>42521</v>
+      </c>
+      <c r="J10" s="35" t="str">
+        <f>IF(I10="","",IF(MONTH(I10+1)&lt;&gt;MONTH(I10),"",I10+1))</f>
+        <v/>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f>IF(J10="","",IF(MONTH(J10+1)&lt;&gt;MONTH(J10),"",J10+1))</f>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f>IF(K10="","",IF(MONTH(K10+1)&lt;&gt;MONTH(K10),"",K10+1))</f>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f>IF(L10="","",IF(MONTH(L10+1)&lt;&gt;MONTH(L10),"",L10+1))</f>
+        <v/>
+      </c>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+    </row>
+    <row r="11" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42871</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="14"/>
+      <c r="G11" s="35" t="str">
+        <f>IF(M10="","",IF(MONTH(M10+1)&lt;&gt;MONTH(M10),"",M10+1))</f>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f>IF(G11="","",IF(MONTH(G11+1)&lt;&gt;MONTH(G11),"",G11+1))</f>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f>IF(H11="","",IF(MONTH(H11+1)&lt;&gt;MONTH(H11),"",H11+1))</f>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f>IF(I11="","",IF(MONTH(I11+1)&lt;&gt;MONTH(I11),"",I11+1))</f>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f>IF(J11="","",IF(MONTH(J11+1)&lt;&gt;MONTH(J11),"",J11+1))</f>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f>IF(K11="","",IF(MONTH(K11+1)&lt;&gt;MONTH(K11),"",K11+1))</f>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f>IF(L11="","",IF(MONTH(L11+1)&lt;&gt;MONTH(L11),"",L11+1))</f>
+        <v/>
+      </c>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+    </row>
+    <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="50">
+        <f>B7+1</f>
+        <v>42871</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+    </row>
+    <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="50"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="15"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="20"/>
+    </row>
+    <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="51"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+    </row>
+    <row r="15" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="3"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42872</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16" s="14"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="50">
+        <f>B12+1</f>
+        <v>42872</v>
+      </c>
+      <c r="C17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="40"/>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="51"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42873</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" s="14"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="50">
+        <f>B17+1</f>
+        <v>42873</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D22" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22" s="40"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="50"/>
+      <c r="C23" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42874</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="14"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="50">
+        <f>B22+1</f>
+        <v>42874</v>
+      </c>
+      <c r="C27" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="B28" s="50"/>
+      <c r="C28" s="54"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="51"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42875</v>
+      </c>
+      <c r="C31" s="11"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="14"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="50">
+        <f>B27+1</f>
+        <v>42875</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="15"/>
+    </row>
+    <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+    </row>
+    <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="51"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+    </row>
+    <row r="35" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42876</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+    </row>
+    <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="50">
+        <f>B32+1</f>
+        <v>42876</v>
+      </c>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="15"/>
+    </row>
+    <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+    </row>
+    <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="51"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="3"/>
+    </row>
+    <row r="41" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42877</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42877</v>
+      </c>
+      <c r="C43" s="43"/>
+      <c r="D43" s="43"/>
+      <c r="E43" s="14"/>
+    </row>
+    <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="50">
+        <f>B37+1</f>
+        <v>42877</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D44" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="E44" s="15"/>
+    </row>
+    <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="50"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="15"/>
+    </row>
+    <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="51"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="10"/>
+      <c r="E46" s="16"/>
+    </row>
+    <row r="47" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42878</v>
+      </c>
+      <c r="C48" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>28</v>
+      </c>
+      <c r="E48" s="43"/>
+    </row>
+    <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="50">
+        <f>B44+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C49" s="39"/>
+      <c r="D49" s="39"/>
+      <c r="E49" s="39"/>
+    </row>
+    <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="15"/>
+    </row>
+    <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="51"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+    </row>
+    <row r="52" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42879</v>
+      </c>
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="43"/>
+    </row>
+    <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="50">
+        <f>B49+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C54" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E54" s="39"/>
+    </row>
+    <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="50"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="15"/>
+    </row>
+    <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="51"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+    </row>
+    <row r="57" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42880</v>
+      </c>
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="43"/>
+    </row>
+    <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="50">
+        <f>B54+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C59" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D59" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E59" s="39"/>
+    </row>
+    <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="50"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="15"/>
+    </row>
+    <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="51"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+    </row>
+    <row r="62" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="3"/>
+    </row>
+    <row r="63" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42881</v>
+      </c>
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="14"/>
+    </row>
+    <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="50">
+        <f>B59+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C64" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E64" s="15"/>
+    </row>
+    <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="50"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+    </row>
+    <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="51"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+    </row>
+    <row r="67" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="3"/>
+    </row>
+    <row r="68" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42882</v>
+      </c>
+      <c r="C68" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="D68" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="E68" s="14"/>
+    </row>
+    <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="50">
+        <f>B64+1</f>
+        <v>42882</v>
+      </c>
+      <c r="E69" s="15"/>
+    </row>
+    <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="50"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+    </row>
+    <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="51"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+    </row>
+    <row r="72" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="3"/>
+    </row>
+    <row r="73" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42883</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+    </row>
+    <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="50">
+        <f>B69+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="15"/>
+    </row>
+    <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+    </row>
+    <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="51"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
       <selection activeCell="C26" sqref="C26:D27"/>
     </sheetView>
   </sheetViews>
@@ -975,11 +2023,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="51" t="s">
+      <c r="B1" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -988,14 +2036,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="45"/>
-      <c r="M1" s="45"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1043,10 +2091,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="46">
+      <c r="L3" s="45">
         <v>2017</v>
       </c>
-      <c r="M3" s="47"/>
+      <c r="M3" s="46"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1057,16 +2105,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="48">
+      <c r="G4" s="47">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
-      <c r="M4" s="50"/>
+      <c r="H4" s="48"/>
+      <c r="I4" s="48"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
+      <c r="M4" s="49"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1109,10 +2157,10 @@
         <f>B7</f>
         <v>42814</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E6" s="14"/>
@@ -1149,7 +2197,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="43">
+      <c r="B7" s="50">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -1193,7 +2241,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="43"/>
+      <c r="B8" s="50"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1229,7 +2277,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="44"/>
+      <c r="B9" s="51"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1303,10 +2351,10 @@
         <f>B12</f>
         <v>42815</v>
       </c>
-      <c r="C11" s="52" t="s">
+      <c r="C11" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E11" s="14"/>
@@ -1342,7 +2390,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="43">
+      <c r="B12" s="50">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -1364,7 +2412,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="43"/>
+      <c r="B13" s="50"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -1381,7 +2429,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="44"/>
+      <c r="B14" s="51"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1417,10 +2465,10 @@
         <f>B17</f>
         <v>42816</v>
       </c>
-      <c r="C16" s="52" t="s">
+      <c r="C16" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D16" s="52" t="s">
+      <c r="D16" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E16" s="14"/>
@@ -1431,7 +2479,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="43">
+      <c r="B17" s="50">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -1446,7 +2494,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="43"/>
+      <c r="B18" s="50"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1454,7 +2502,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="44"/>
+      <c r="B19" s="51"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1467,17 +2515,17 @@
         <f>B22</f>
         <v>42817</v>
       </c>
-      <c r="C21" s="52" t="s">
+      <c r="C21" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E21" s="14"/>
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="43">
+      <c r="B22" s="50">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -1491,14 +2539,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="43"/>
+      <c r="B23" s="50"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="44"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1511,17 +2559,17 @@
         <f>B27</f>
         <v>42818</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="52" t="s">
+      <c r="D26" s="43" t="s">
         <v>22</v>
       </c>
       <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="43">
+      <c r="B27" s="50">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -1535,14 +2583,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="43"/>
+      <c r="B28" s="50"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="44"/>
+      <c r="B29" s="51"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1561,7 +2609,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="43">
+      <c r="B32" s="50">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -1571,14 +2619,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="43"/>
+      <c r="B33" s="50"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="44"/>
+      <c r="B34" s="51"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1597,7 +2645,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="43">
+      <c r="B37" s="50">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -1607,14 +2655,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="43"/>
+      <c r="B38" s="50"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="44"/>
+      <c r="B39" s="51"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1650,7 +2698,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="43">
+      <c r="B44" s="50">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -1660,14 +2708,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="43"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="44"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1691,7 +2739,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="43">
+      <c r="B49" s="50">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -1701,14 +2749,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="43"/>
+      <c r="B50" s="50"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="44"/>
+      <c r="B51" s="51"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1732,7 +2780,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="43">
+      <c r="B54" s="50">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -1742,14 +2790,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="43"/>
+      <c r="B55" s="50"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="44"/>
+      <c r="B56" s="51"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1768,7 +2816,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="43">
+      <c r="B59" s="50">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -1778,14 +2826,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="43"/>
+      <c r="B60" s="50"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="44"/>
+      <c r="B61" s="51"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1804,7 +2852,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="43">
+      <c r="B64" s="50">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -1814,14 +2862,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="43"/>
+      <c r="B65" s="50"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="44"/>
+      <c r="B66" s="51"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1840,7 +2888,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="43">
+      <c r="B69" s="50">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -1850,14 +2898,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="43"/>
+      <c r="B70" s="50"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="44"/>
+      <c r="B71" s="51"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1876,7 +2924,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="43">
+      <c r="B74" s="50">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -1886,20 +2934,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="43"/>
+      <c r="B75" s="50"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="44"/>
+      <c r="B76" s="51"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -1914,11 +2967,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
   <si>
     <t>MORNING</t>
   </si>
@@ -147,10 +147,6 @@
   </si>
   <si>
     <t>项目整理，产品升级讨论</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>调休</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -699,6 +695,18 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -719,18 +727,6 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1015,7 +1011,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+      <selection activeCell="C64" sqref="C64:D64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1030,11 +1026,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>25</v>
@@ -1043,14 +1039,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1098,10 +1094,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="51">
         <v>2016</v>
       </c>
-      <c r="M3" s="46"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1112,16 +1108,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="47">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42491</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1165,7 +1161,7 @@
         <v>42870</v>
       </c>
       <c r="C6" s="43"/>
-      <c r="D6" s="55" t="s">
+      <c r="D6" s="46" t="s">
         <v>24</v>
       </c>
       <c r="E6" s="14"/>
@@ -1202,7 +1198,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1218,27 +1214,27 @@
         <v>42498</v>
       </c>
       <c r="H7" s="35">
-        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <f t="shared" ref="H7:M11" si="0">IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
         <v>42499</v>
       </c>
       <c r="I7" s="35">
-        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <f t="shared" si="0"/>
         <v>42500</v>
       </c>
       <c r="J7" s="35">
-        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <f t="shared" si="0"/>
         <v>42501</v>
       </c>
       <c r="K7" s="35">
-        <f>IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <f t="shared" si="0"/>
         <v>42502</v>
       </c>
       <c r="L7" s="35">
-        <f>IF(K7="","",IF(MONTH(K7+1)&lt;&gt;MONTH(K7),"",K7+1))</f>
+        <f t="shared" si="0"/>
         <v>42503</v>
       </c>
       <c r="M7" s="35">
-        <f>IF(L7="","",IF(MONTH(L7+1)&lt;&gt;MONTH(L7),"",L7+1))</f>
+        <f t="shared" si="0"/>
         <v>42504</v>
       </c>
       <c r="N7" s="20"/>
@@ -1246,7 +1242,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1255,34 +1251,34 @@
         <v>42505</v>
       </c>
       <c r="H8" s="35">
-        <f>IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <f t="shared" si="0"/>
         <v>42506</v>
       </c>
       <c r="I8" s="35">
-        <f>IF(H8="","",IF(MONTH(H8+1)&lt;&gt;MONTH(H8),"",H8+1))</f>
+        <f t="shared" si="0"/>
         <v>42507</v>
       </c>
       <c r="J8" s="35">
-        <f>IF(I8="","",IF(MONTH(I8+1)&lt;&gt;MONTH(I8),"",I8+1))</f>
+        <f t="shared" si="0"/>
         <v>42508</v>
       </c>
       <c r="K8" s="35">
-        <f>IF(J8="","",IF(MONTH(J8+1)&lt;&gt;MONTH(J8),"",J8+1))</f>
+        <f t="shared" si="0"/>
         <v>42509</v>
       </c>
       <c r="L8" s="35">
-        <f>IF(K8="","",IF(MONTH(K8+1)&lt;&gt;MONTH(K8),"",K8+1))</f>
+        <f t="shared" si="0"/>
         <v>42510</v>
       </c>
       <c r="M8" s="35">
-        <f>IF(L8="","",IF(MONTH(L8+1)&lt;&gt;MONTH(L8),"",L8+1))</f>
+        <f t="shared" si="0"/>
         <v>42511</v>
       </c>
       <c r="N8" s="20"/>
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1292,27 +1288,27 @@
         <v>42512</v>
       </c>
       <c r="H9" s="35">
-        <f>IF(G9="","",IF(MONTH(G9+1)&lt;&gt;MONTH(G9),"",G9+1))</f>
+        <f t="shared" si="0"/>
         <v>42513</v>
       </c>
       <c r="I9" s="35">
-        <f>IF(H9="","",IF(MONTH(H9+1)&lt;&gt;MONTH(H9),"",H9+1))</f>
+        <f t="shared" si="0"/>
         <v>42514</v>
       </c>
       <c r="J9" s="35">
-        <f>IF(I9="","",IF(MONTH(I9+1)&lt;&gt;MONTH(I9),"",I9+1))</f>
+        <f t="shared" si="0"/>
         <v>42515</v>
       </c>
       <c r="K9" s="35">
-        <f>IF(J9="","",IF(MONTH(J9+1)&lt;&gt;MONTH(J9),"",J9+1))</f>
+        <f t="shared" si="0"/>
         <v>42516</v>
       </c>
       <c r="L9" s="35">
-        <f>IF(K9="","",IF(MONTH(K9+1)&lt;&gt;MONTH(K9),"",K9+1))</f>
+        <f t="shared" si="0"/>
         <v>42517</v>
       </c>
       <c r="M9" s="35">
-        <f>IF(L9="","",IF(MONTH(L9+1)&lt;&gt;MONTH(L9),"",L9+1))</f>
+        <f t="shared" si="0"/>
         <v>42518</v>
       </c>
       <c r="N9" s="20"/>
@@ -1325,27 +1321,27 @@
         <v>42519</v>
       </c>
       <c r="H10" s="35">
-        <f>IF(G10="","",IF(MONTH(G10+1)&lt;&gt;MONTH(G10),"",G10+1))</f>
+        <f t="shared" si="0"/>
         <v>42520</v>
       </c>
       <c r="I10" s="35">
-        <f>IF(H10="","",IF(MONTH(H10+1)&lt;&gt;MONTH(H10),"",H10+1))</f>
+        <f t="shared" si="0"/>
         <v>42521</v>
       </c>
       <c r="J10" s="35" t="str">
-        <f>IF(I10="","",IF(MONTH(I10+1)&lt;&gt;MONTH(I10),"",I10+1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K10" s="35" t="str">
-        <f>IF(J10="","",IF(MONTH(J10+1)&lt;&gt;MONTH(J10),"",J10+1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L10" s="35" t="str">
-        <f>IF(K10="","",IF(MONTH(K10+1)&lt;&gt;MONTH(K10),"",K10+1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M10" s="35" t="str">
-        <f>IF(L10="","",IF(MONTH(L10+1)&lt;&gt;MONTH(L10),"",L10+1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N10" s="20"/>
@@ -1357,7 +1353,7 @@
         <v>42871</v>
       </c>
       <c r="C11" s="43"/>
-      <c r="D11" s="55" t="s">
+      <c r="D11" s="46" t="s">
         <v>24</v>
       </c>
       <c r="E11" s="14"/>
@@ -1366,34 +1362,34 @@
         <v/>
       </c>
       <c r="H11" s="35" t="str">
-        <f>IF(G11="","",IF(MONTH(G11+1)&lt;&gt;MONTH(G11),"",G11+1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="I11" s="35" t="str">
-        <f>IF(H11="","",IF(MONTH(H11+1)&lt;&gt;MONTH(H11),"",H11+1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="J11" s="35" t="str">
-        <f>IF(I11="","",IF(MONTH(I11+1)&lt;&gt;MONTH(I11),"",I11+1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="K11" s="35" t="str">
-        <f>IF(J11="","",IF(MONTH(J11+1)&lt;&gt;MONTH(J11),"",J11+1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="L11" s="35" t="str">
-        <f>IF(K11="","",IF(MONTH(K11+1)&lt;&gt;MONTH(K11),"",K11+1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="M11" s="35" t="str">
-        <f>IF(L11="","",IF(MONTH(L11+1)&lt;&gt;MONTH(L11),"",L11+1))</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="N11" s="20"/>
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1415,7 +1411,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1432,7 +1428,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1471,7 +1467,7 @@
       <c r="C16" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="46" t="s">
         <v>24</v>
       </c>
       <c r="E16" s="14"/>
@@ -1482,7 +1478,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1497,7 +1493,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1505,7 +1501,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1528,7 +1524,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1542,7 +1538,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="39" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1549,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1576,7 +1572,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1590,14 +1586,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
-      <c r="C28" s="54"/>
-      <c r="D28" s="53"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="45"/>
+      <c r="D28" s="44"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1616,7 +1612,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1626,14 +1622,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1652,7 +1648,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1662,14 +1658,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1705,7 +1701,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1719,14 +1715,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1754,7 +1750,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1764,14 +1760,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1795,7 +1791,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1809,14 +1805,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1835,7 +1831,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1849,14 +1845,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1875,28 +1871,28 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42881</v>
       </c>
       <c r="C64" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D64" s="39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E64" s="15"/>
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1919,7 +1915,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -1927,14 +1923,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1953,7 +1949,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -1963,20 +1959,29 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
@@ -1987,15 +1992,6 @@
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,11 +2019,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="52"/>
-      <c r="D1" s="52"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2036,14 +2032,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2091,10 +2087,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="45">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="46"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2105,16 +2101,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="47">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="48"/>
-      <c r="I4" s="48"/>
-      <c r="J4" s="48"/>
-      <c r="K4" s="48"/>
-      <c r="L4" s="48"/>
-      <c r="M4" s="49"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2197,7 +2193,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="50">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -2241,7 +2237,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="50"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2277,7 +2273,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2390,7 +2386,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="50">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -2412,7 +2408,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="50"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2429,7 +2425,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="51"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2479,7 +2475,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="50">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -2494,7 +2490,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="50"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2502,7 +2498,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="51"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2525,7 +2521,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="50">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -2539,14 +2535,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="51"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2569,7 +2565,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="50">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -2583,14 +2579,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="50"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="51"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2609,7 +2605,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="50">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -2619,14 +2615,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="50"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="51"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2645,7 +2641,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="50">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -2655,14 +2651,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="50"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="51"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2698,7 +2694,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="50">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -2708,14 +2704,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="50"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="51"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2739,7 +2735,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="50">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2749,14 +2745,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="50"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="51"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2780,7 +2776,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="50">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2790,14 +2786,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="50"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="51"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2816,7 +2812,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="50">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2826,14 +2822,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="50"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="51"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2852,7 +2848,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="50">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2862,14 +2858,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="50"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="51"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2888,7 +2884,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="50">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2898,14 +2894,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="50"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="51"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2924,7 +2920,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="50">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2934,25 +2930,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="50"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="51"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2967,6 +2958,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
   <si>
     <t>MORNING</t>
   </si>
@@ -147,6 +147,10 @@
   </si>
   <si>
     <t>项目整理，产品升级讨论</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目整理，产品升级讨论1</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1011,7 +1015,7 @@
   <dimension ref="A1:O76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64:D64"/>
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1909,7 +1913,7 @@
         <v>33</v>
       </c>
       <c r="D68" s="39" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E68" s="14"/>
     </row>
@@ -1973,16 +1977,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="B22:B24"/>
-    <mergeCell ref="B1:D1"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="G4:M4"/>
-    <mergeCell ref="B27:B29"/>
     <mergeCell ref="B32:B34"/>
     <mergeCell ref="B74:B76"/>
     <mergeCell ref="B44:B46"/>
@@ -1992,6 +1986,16 @@
     <mergeCell ref="B64:B66"/>
     <mergeCell ref="B69:B71"/>
     <mergeCell ref="B37:B39"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B1:D1"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2944,6 +2948,11 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2958,11 +2967,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -150,7 +150,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>项目整理，产品升级讨论1</t>
+    <t>项目整理，产品升级讨论12</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -708,11 +708,11 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1030,11 +1030,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>25</v>
@@ -1043,14 +1043,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1977,15 +1977,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
@@ -1996,6 +1987,15 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,11 +2023,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2036,14 +2036,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2948,11 +2948,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2967,6 +2962,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFCA\000\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\0 工作日报\无纸化日报Github\Project-Process-library2\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 08-09'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,14 +150,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>项目整理，产品升级讨论1</t>
+    <t>项目整理，产品升级讨论12</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="dddd"/>
@@ -708,11 +708,11 @@
     <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1030,11 +1030,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>25</v>
@@ -1043,14 +1043,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1977,15 +1977,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
@@ -1996,6 +1987,15 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,11 +2023,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="49" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2036,14 +2036,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="50"/>
-      <c r="M1" s="50"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2948,11 +2948,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2967,6 +2962,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\工作\0 工作日报\无纸化日报Github\Project-Process-library2\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -150,7 +150,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>项目整理，产品升级讨论12</t>
+    <t>项目整理，产品升级讨论</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -702,12 +702,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,6 +723,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,11 +1030,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>25</v>
@@ -1043,14 +1043,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1098,10 +1098,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>2016</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1112,16 +1112,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42491</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="54">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1282,7 +1282,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1393,7 +1393,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="54">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1432,7 +1432,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="54">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="54">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="39" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="54">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1590,14 +1590,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="45"/>
       <c r="D28" s="44"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="54">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1626,14 +1626,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="54">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1662,14 +1662,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="54">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1719,14 +1719,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="54">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1764,14 +1764,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="54">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1809,14 +1809,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="54">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1849,14 +1849,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="54">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1889,14 +1889,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="54">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -1927,14 +1927,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="54">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -1963,20 +1963,29 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
@@ -1987,15 +1996,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,11 +2023,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2036,14 +2036,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2091,10 +2091,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2105,16 +2105,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="54">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2277,7 +2277,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2390,7 +2390,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="54">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2429,7 +2429,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="54">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="54">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -2539,14 +2539,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="54">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -2583,14 +2583,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="54">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -2619,14 +2619,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="54">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -2655,14 +2655,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="54">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -2708,14 +2708,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="54">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2749,14 +2749,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="54">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2790,14 +2790,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="54">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2826,14 +2826,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="54">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2862,14 +2862,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="54">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2898,14 +2898,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="54">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2934,20 +2934,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2962,11 +2967,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -150,7 +150,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>项目整理，产品升级讨论12</t>
+    <t>项目整理，产品升级讨论123</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -702,12 +702,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -729,6 +723,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,11 +1030,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>25</v>
@@ -1043,14 +1043,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1098,10 +1098,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>2016</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1112,16 +1112,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42491</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="54">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1282,7 +1282,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1393,7 +1393,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="54">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1432,7 +1432,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="54">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="54">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="39" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="54">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1590,14 +1590,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="45"/>
       <c r="D28" s="44"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="54">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1626,14 +1626,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="54">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1662,14 +1662,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="54">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1719,14 +1719,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="54">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1764,14 +1764,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="54">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1809,14 +1809,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="54">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1849,14 +1849,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="54">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1889,14 +1889,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="54">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -1927,14 +1927,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="54">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -1963,20 +1963,29 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
@@ -1987,15 +1996,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,11 +2023,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2036,14 +2036,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2091,10 +2091,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2105,16 +2105,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="54">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2277,7 +2277,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2390,7 +2390,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="54">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2429,7 +2429,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="54">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="54">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -2539,14 +2539,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="54">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -2583,14 +2583,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="54">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -2619,14 +2619,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="54">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -2655,14 +2655,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="54">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -2708,14 +2708,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="54">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2749,14 +2749,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="54">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2790,14 +2790,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="54">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2826,14 +2826,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="54">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2862,14 +2862,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="54">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2898,14 +2898,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="54">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2934,20 +2934,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2962,11 +2967,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -150,7 +150,7 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>项目整理，产品升级讨论123</t>
+    <t>项目整理，产品升级讨论1234</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -702,6 +702,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,12 +729,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,11 +1030,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>25</v>
@@ -1043,14 +1043,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1098,10 +1098,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2016</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1112,16 +1112,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42491</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="54">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="54"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1282,7 +1282,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="55"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1393,7 +1393,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="54"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1432,7 +1432,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="54">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="54"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="55"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="54">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="54"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="39" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="55"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="54">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1590,14 +1590,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="54"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="45"/>
       <c r="D28" s="44"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="55"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="54">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1626,14 +1626,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="54"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="55"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="54">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1662,14 +1662,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="54"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="55"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="54">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1719,14 +1719,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="54"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="55"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="54">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1764,14 +1764,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="54"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="55"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="54">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1809,14 +1809,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="54"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="55"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="54">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1849,14 +1849,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="54"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="55"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="54">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1889,14 +1889,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="54"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="55"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="54">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -1927,14 +1927,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="54"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="55"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="54">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -1963,29 +1963,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="54"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="55"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
@@ -1996,6 +1987,15 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,11 +2023,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2036,14 +2036,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2091,10 +2091,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2105,16 +2105,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="54">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="54"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2277,7 +2277,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="55"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2390,7 +2390,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="54"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2429,7 +2429,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="54">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="54"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="55"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="54">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -2539,14 +2539,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="54"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="55"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="54">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -2583,14 +2583,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="54"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="55"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="54">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -2619,14 +2619,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="54"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="55"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="54">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -2655,14 +2655,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="54"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="55"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="54">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -2708,14 +2708,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="54"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="55"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="54">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2749,14 +2749,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="54"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="55"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="54">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2790,14 +2790,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="54"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="55"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="54">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2826,14 +2826,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="54"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="55"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="54">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2862,14 +2862,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="54"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="55"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="54">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2898,14 +2898,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="54"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="55"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="54">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2934,25 +2934,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="54"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="55"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2967,6 +2962,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFCA\000\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 08-09'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -150,14 +150,14 @@
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
   <si>
-    <t>项目整理，产品升级讨论123</t>
+    <t>项目整理，产品升级讨论</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="dddd"/>
@@ -702,6 +702,12 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -723,12 +729,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1030,11 +1030,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>25</v>
@@ -1043,14 +1043,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1098,10 +1098,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2016</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1112,16 +1112,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42491</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1202,7 +1202,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="54">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1246,7 +1246,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="54"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1282,7 +1282,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="55"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1393,7 +1393,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1415,7 +1415,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="54"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1432,7 +1432,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1482,7 +1482,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="54">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1497,7 +1497,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="54"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1505,7 +1505,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="55"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="54">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="54"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="39" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="55"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1576,7 +1576,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="54">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1590,14 +1590,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="54"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="45"/>
       <c r="D28" s="44"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="55"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1616,7 +1616,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="54">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1626,14 +1626,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="54"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="55"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="54">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1662,14 +1662,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="54"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="55"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1705,7 +1705,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="54">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1719,14 +1719,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="54"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="55"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="54">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1764,14 +1764,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="54"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="55"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1795,7 +1795,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="54">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1809,14 +1809,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="54"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="55"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1835,7 +1835,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="54">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1849,14 +1849,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="54"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="55"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1875,7 +1875,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="54">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1889,14 +1889,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="54"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="55"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="54">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -1927,14 +1927,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="54"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="55"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1953,7 +1953,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="54">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -1963,29 +1963,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="54"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="55"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
@@ -1996,10 +1987,19 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B1:D1"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2023,11 +2023,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2036,14 +2036,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2091,10 +2091,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="49">
+      <c r="L3" s="51">
         <v>2017</v>
       </c>
-      <c r="M3" s="50"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2105,16 +2105,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="51">
+      <c r="G4" s="53">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-      <c r="M4" s="53"/>
+      <c r="H4" s="54"/>
+      <c r="I4" s="54"/>
+      <c r="J4" s="54"/>
+      <c r="K4" s="54"/>
+      <c r="L4" s="54"/>
+      <c r="M4" s="55"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="54">
+      <c r="B7" s="47">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -2241,7 +2241,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="54"/>
+      <c r="B8" s="47"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2277,7 +2277,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="55"/>
+      <c r="B9" s="48"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2390,7 +2390,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="54">
+      <c r="B12" s="47">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -2412,7 +2412,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="54"/>
+      <c r="B13" s="47"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2429,7 +2429,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="55"/>
+      <c r="B14" s="48"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="54">
+      <c r="B17" s="47">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -2494,7 +2494,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="54"/>
+      <c r="B18" s="47"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2502,7 +2502,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="55"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2525,7 +2525,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="54">
+      <c r="B22" s="47">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -2539,14 +2539,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="54"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="55"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="54">
+      <c r="B27" s="47">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -2583,14 +2583,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="54"/>
+      <c r="B28" s="47"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="55"/>
+      <c r="B29" s="48"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2609,7 +2609,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="54">
+      <c r="B32" s="47">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -2619,14 +2619,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="54"/>
+      <c r="B33" s="47"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="55"/>
+      <c r="B34" s="48"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2645,7 +2645,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="54">
+      <c r="B37" s="47">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -2655,14 +2655,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="54"/>
+      <c r="B38" s="47"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="55"/>
+      <c r="B39" s="48"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2698,7 +2698,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="54">
+      <c r="B44" s="47">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -2708,14 +2708,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="54"/>
+      <c r="B45" s="47"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="55"/>
+      <c r="B46" s="48"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="54">
+      <c r="B49" s="47">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2749,14 +2749,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="54"/>
+      <c r="B50" s="47"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="55"/>
+      <c r="B51" s="48"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2780,7 +2780,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="54">
+      <c r="B54" s="47">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2790,14 +2790,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="54"/>
+      <c r="B55" s="47"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="55"/>
+      <c r="B56" s="48"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2816,7 +2816,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="54">
+      <c r="B59" s="47">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2826,14 +2826,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="54"/>
+      <c r="B60" s="47"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="55"/>
+      <c r="B61" s="48"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2852,7 +2852,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="54">
+      <c r="B64" s="47">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2862,14 +2862,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="54"/>
+      <c r="B65" s="47"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="55"/>
+      <c r="B66" s="48"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2888,7 +2888,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="54">
+      <c r="B69" s="47">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2898,14 +2898,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="54"/>
+      <c r="B70" s="47"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="55"/>
+      <c r="B71" s="48"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2924,7 +2924,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="54">
+      <c r="B74" s="47">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2934,25 +2934,20 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="54"/>
+      <c r="B75" s="47"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="55"/>
+      <c r="B76" s="48"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2967,6 +2962,11 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Week 20-21" sheetId="6" r:id="rId1"/>
     <sheet name="Week 08-09" sheetId="5" r:id="rId2"/>
+    <sheet name="Week 22-23" sheetId="7" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 08-09'!$B$2:$E$39</definedName>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="54">
   <si>
     <t>MORNING</t>
   </si>
@@ -151,6 +152,82 @@
   </si>
   <si>
     <t>项目整理，产品升级讨论1234</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>« Every Monday</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>© 2017 PAPERLESS LLC</t>
+    <phoneticPr fontId="16" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIWEEKLY WORK SCHEDULE</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒安标准人寿现场支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津融宝支付生产环境部署支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化上线前支持</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>百瑞信托技术交流</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化生产环境部署测试</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>调休</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化项目整理</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>公司</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>前往郑州</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>外出</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>回京</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>端午节</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化上线现场支持</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -617,7 +694,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -702,12 +779,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,6 +802,17 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1014,7 +1096,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -1030,11 +1112,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>25</v>
@@ -1043,14 +1125,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1098,10 +1180,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>2016</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1112,16 +1194,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42491</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1202,7 +1284,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="54">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1246,7 +1328,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1282,7 +1364,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1393,7 +1475,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="54">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1415,7 +1497,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1432,7 +1514,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1482,7 +1564,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="54">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1497,7 +1579,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1505,7 +1587,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1528,7 +1610,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="54">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1542,7 +1624,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="39" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +1635,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1576,7 +1658,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="54">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1590,14 +1672,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="45"/>
       <c r="D28" s="44"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1616,7 +1698,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="54">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1626,14 +1708,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1652,7 +1734,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="54">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1662,14 +1744,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1705,7 +1787,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="54">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1719,14 +1801,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1754,7 +1836,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="54">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1764,14 +1846,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1795,7 +1877,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="54">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1809,14 +1891,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1835,7 +1917,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="54">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1849,14 +1931,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1875,7 +1957,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="54">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1889,14 +1971,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1919,7 +2001,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="54">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -1927,14 +2009,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1953,7 +2035,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="54">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -1963,20 +2045,29 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
@@ -1987,15 +2078,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2023,11 +2105,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2036,14 +2118,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2091,10 +2173,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2105,16 +2187,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2197,7 +2279,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="54">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -2241,7 +2323,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2277,7 +2359,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2390,7 +2472,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="54">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -2412,7 +2494,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2429,7 +2511,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2479,7 +2561,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="54">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -2494,7 +2576,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2502,7 +2584,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2525,7 +2607,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="54">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -2539,14 +2621,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2569,7 +2651,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="54">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -2583,14 +2665,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2609,7 +2691,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="54">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -2619,14 +2701,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2645,7 +2727,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="54">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -2655,14 +2737,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2698,7 +2780,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="54">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -2708,14 +2790,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2739,7 +2821,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="54">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2749,14 +2831,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2780,7 +2862,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="54">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2790,14 +2872,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2816,7 +2898,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="54">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2826,14 +2908,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2852,7 +2934,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="54">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2862,14 +2944,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2888,7 +2970,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="54">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2898,14 +2980,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2924,7 +3006,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="54">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2934,20 +3016,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2962,11 +3049,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
@@ -2976,4 +3058,1162 @@
     <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="4.25" customWidth="1"/>
+    <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
+    <col min="5" max="5" width="22.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="25.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+    </row>
+    <row r="2" spans="1:13" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="1"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="38">
+        <f>C3</f>
+        <v>42877</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="26"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="27"/>
+    </row>
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="21">
+        <v>42877</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="23">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+
+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>21</v>
+      </c>
+      <c r="F3" s="20"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="30">
+        <v>5</v>
+      </c>
+      <c r="J3" s="31"/>
+      <c r="K3" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="49">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="50"/>
+    </row>
+    <row r="4" spans="1:13" ht="15" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="51">
+        <f>DATE(L3,I3,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
+    </row>
+    <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="33" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="7">
+        <f>B7</f>
+        <v>42877</v>
+      </c>
+      <c r="C6" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="57"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="35" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="35">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v>42856</v>
+      </c>
+      <c r="I6" s="35">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v>42857</v>
+      </c>
+      <c r="J6" s="35">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v>42858</v>
+      </c>
+      <c r="K6" s="35">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42859</v>
+      </c>
+      <c r="L6" s="35">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42860</v>
+      </c>
+      <c r="M6" s="35">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42861</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="54">
+        <f>E2</f>
+        <v>42877</v>
+      </c>
+      <c r="C7" s="39" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="40"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="35">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42862</v>
+      </c>
+      <c r="H7" s="35">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42863</v>
+      </c>
+      <c r="I7" s="35">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42864</v>
+      </c>
+      <c r="J7" s="35">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42865</v>
+      </c>
+      <c r="K7" s="35">
+        <f>IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42866</v>
+      </c>
+      <c r="L7" s="35">
+        <f>IF(K7="","",IF(MONTH(K7+1)&lt;&gt;MONTH(K7),"",K7+1))</f>
+        <v>42867</v>
+      </c>
+      <c r="M7" s="35">
+        <f>IF(L7="","",IF(MONTH(L7+1)&lt;&gt;MONTH(L7),"",L7+1))</f>
+        <v>42868</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="35">
+        <f>IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42869</v>
+      </c>
+      <c r="H8" s="35">
+        <f>IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42870</v>
+      </c>
+      <c r="I8" s="35">
+        <f>IF(H8="","",IF(MONTH(H8+1)&lt;&gt;MONTH(H8),"",H8+1))</f>
+        <v>42871</v>
+      </c>
+      <c r="J8" s="35">
+        <f>IF(I8="","",IF(MONTH(I8+1)&lt;&gt;MONTH(I8),"",I8+1))</f>
+        <v>42872</v>
+      </c>
+      <c r="K8" s="35">
+        <f>IF(J8="","",IF(MONTH(J8+1)&lt;&gt;MONTH(J8),"",J8+1))</f>
+        <v>42873</v>
+      </c>
+      <c r="L8" s="35">
+        <f>IF(K8="","",IF(MONTH(K8+1)&lt;&gt;MONTH(K8),"",K8+1))</f>
+        <v>42874</v>
+      </c>
+      <c r="M8" s="35">
+        <f>IF(L8="","",IF(MONTH(L8+1)&lt;&gt;MONTH(L8),"",L8+1))</f>
+        <v>42875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="35">
+        <f>IF(M8="","",IF(MONTH(M8+1)&lt;&gt;MONTH(M8),"",M8+1))</f>
+        <v>42876</v>
+      </c>
+      <c r="H9" s="35">
+        <f>IF(G9="","",IF(MONTH(G9+1)&lt;&gt;MONTH(G9),"",G9+1))</f>
+        <v>42877</v>
+      </c>
+      <c r="I9" s="35">
+        <f>IF(H9="","",IF(MONTH(H9+1)&lt;&gt;MONTH(H9),"",H9+1))</f>
+        <v>42878</v>
+      </c>
+      <c r="J9" s="35">
+        <f>IF(I9="","",IF(MONTH(I9+1)&lt;&gt;MONTH(I9),"",I9+1))</f>
+        <v>42879</v>
+      </c>
+      <c r="K9" s="35">
+        <f>IF(J9="","",IF(MONTH(J9+1)&lt;&gt;MONTH(J9),"",J9+1))</f>
+        <v>42880</v>
+      </c>
+      <c r="L9" s="35">
+        <f>IF(K9="","",IF(MONTH(K9+1)&lt;&gt;MONTH(K9),"",K9+1))</f>
+        <v>42881</v>
+      </c>
+      <c r="M9" s="35">
+        <f>IF(L9="","",IF(MONTH(L9+1)&lt;&gt;MONTH(L9),"",L9+1))</f>
+        <v>42882</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="35">
+        <f>IF(M9="","",IF(MONTH(M9+1)&lt;&gt;MONTH(M9),"",M9+1))</f>
+        <v>42883</v>
+      </c>
+      <c r="H10" s="35">
+        <f>IF(G10="","",IF(MONTH(G10+1)&lt;&gt;MONTH(G10),"",G10+1))</f>
+        <v>42884</v>
+      </c>
+      <c r="I10" s="35">
+        <f>IF(H10="","",IF(MONTH(H10+1)&lt;&gt;MONTH(H10),"",H10+1))</f>
+        <v>42885</v>
+      </c>
+      <c r="J10" s="35">
+        <f>IF(I10="","",IF(MONTH(I10+1)&lt;&gt;MONTH(I10),"",I10+1))</f>
+        <v>42886</v>
+      </c>
+      <c r="K10" s="35" t="str">
+        <f>IF(J10="","",IF(MONTH(J10+1)&lt;&gt;MONTH(J10),"",J10+1))</f>
+        <v/>
+      </c>
+      <c r="L10" s="35" t="str">
+        <f>IF(K10="","",IF(MONTH(K10+1)&lt;&gt;MONTH(K10),"",K10+1))</f>
+        <v/>
+      </c>
+      <c r="M10" s="35" t="str">
+        <f>IF(L10="","",IF(MONTH(L10+1)&lt;&gt;MONTH(L10),"",L10+1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="7">
+        <f>B12</f>
+        <v>42878</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="35" t="str">
+        <f>IF(M10="","",IF(MONTH(M10+1)&lt;&gt;MONTH(M10),"",M10+1))</f>
+        <v/>
+      </c>
+      <c r="H11" s="35" t="str">
+        <f>IF(G11="","",IF(MONTH(G11+1)&lt;&gt;MONTH(G11),"",G11+1))</f>
+        <v/>
+      </c>
+      <c r="I11" s="35" t="str">
+        <f>IF(H11="","",IF(MONTH(H11+1)&lt;&gt;MONTH(H11),"",H11+1))</f>
+        <v/>
+      </c>
+      <c r="J11" s="35" t="str">
+        <f>IF(I11="","",IF(MONTH(I11+1)&lt;&gt;MONTH(I11),"",I11+1))</f>
+        <v/>
+      </c>
+      <c r="K11" s="35" t="str">
+        <f>IF(J11="","",IF(MONTH(J11+1)&lt;&gt;MONTH(J11),"",J11+1))</f>
+        <v/>
+      </c>
+      <c r="L11" s="35" t="str">
+        <f>IF(K11="","",IF(MONTH(K11+1)&lt;&gt;MONTH(K11),"",K11+1))</f>
+        <v/>
+      </c>
+      <c r="M11" s="35" t="str">
+        <f>IF(L11="","",IF(MONTH(L11+1)&lt;&gt;MONTH(L11),"",L11+1))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="54">
+        <f>B7+1</f>
+        <v>42878</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="25"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+    </row>
+    <row r="13" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="25"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="25"/>
+      <c r="K13" s="25"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="25"/>
+    </row>
+    <row r="14" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="25"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="25"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+    </row>
+    <row r="15" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="25"/>
+      <c r="K15" s="25"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="25"/>
+    </row>
+    <row r="16" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="7">
+        <f>B17</f>
+        <v>42879</v>
+      </c>
+      <c r="C16" s="43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="18"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+    </row>
+    <row r="17" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="54">
+        <f>B12+1</f>
+        <v>42879</v>
+      </c>
+      <c r="C17" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="56" t="s">
+        <v>48</v>
+      </c>
+      <c r="E17" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+    </row>
+    <row r="18" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="54"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+    </row>
+    <row r="19" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="55"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="10"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+    </row>
+    <row r="20" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A20" s="1"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+    </row>
+    <row r="21" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A21" s="1"/>
+      <c r="B21" s="7">
+        <f>B22</f>
+        <v>42880</v>
+      </c>
+      <c r="C21" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D21" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E21" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="1"/>
+    </row>
+    <row r="22" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="54">
+        <f>B17+1</f>
+        <v>42880</v>
+      </c>
+      <c r="C22" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="1"/>
+    </row>
+    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="54"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A25" s="1"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A26" s="1"/>
+      <c r="B26" s="7">
+        <f>B27</f>
+        <v>42881</v>
+      </c>
+      <c r="C26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E26" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="F26" s="1"/>
+    </row>
+    <row r="27" spans="1:13" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="54">
+        <f>B22+1</f>
+        <v>42881</v>
+      </c>
+      <c r="C27" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="56" t="s">
+        <v>43</v>
+      </c>
+      <c r="E27" s="56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" s="1"/>
+    </row>
+    <row r="28" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="1"/>
+    </row>
+    <row r="29" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="1"/>
+    </row>
+    <row r="30" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A30" s="1"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1"/>
+    </row>
+    <row r="31" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="7">
+        <f>B32</f>
+        <v>42882</v>
+      </c>
+      <c r="C31" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" s="1"/>
+    </row>
+    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="54">
+        <f>B27+1</f>
+        <v>42882</v>
+      </c>
+      <c r="C32" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="D32" s="56" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="56" t="s">
+        <v>50</v>
+      </c>
+      <c r="F32" s="1"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="54"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="1"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="13"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="1"/>
+    </row>
+    <row r="35" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A35" s="1"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A36" s="1"/>
+      <c r="B36" s="7">
+        <f>B37</f>
+        <v>42883</v>
+      </c>
+      <c r="C36" s="11"/>
+      <c r="D36" s="8"/>
+      <c r="E36" s="14"/>
+      <c r="F36" s="1"/>
+    </row>
+    <row r="37" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="54">
+        <f>B32+1</f>
+        <v>42883</v>
+      </c>
+      <c r="C37" s="12"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="1"/>
+    </row>
+    <row r="38" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="54"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="1"/>
+    </row>
+    <row r="39" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="13"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="1"/>
+    </row>
+    <row r="40" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A40" s="1"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="1"/>
+    </row>
+    <row r="41" spans="1:6" ht="21" x14ac:dyDescent="0.2">
+      <c r="A41" s="37"/>
+      <c r="B41" s="22" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="21">
+        <f>C3+7</f>
+        <v>42884</v>
+      </c>
+      <c r="D41" s="21"/>
+      <c r="E41" s="23">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+
+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>22</v>
+      </c>
+      <c r="F41" s="1"/>
+    </row>
+    <row r="42" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A42" s="1"/>
+      <c r="B42" s="1"/>
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="1"/>
+    </row>
+    <row r="43" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A43" s="1"/>
+      <c r="B43" s="7">
+        <f>B44</f>
+        <v>42884</v>
+      </c>
+      <c r="C43" s="39"/>
+      <c r="D43" s="39"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="1"/>
+    </row>
+    <row r="44" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="54">
+        <f>B37+1</f>
+        <v>42884</v>
+      </c>
+      <c r="C44" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="D44" s="58" t="s">
+        <v>51</v>
+      </c>
+      <c r="E44" s="15"/>
+      <c r="F44" s="1"/>
+    </row>
+    <row r="45" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="54"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="1"/>
+    </row>
+    <row r="46" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="1"/>
+    </row>
+    <row r="47" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="1"/>
+    </row>
+    <row r="48" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="7">
+        <f>B49</f>
+        <v>42885</v>
+      </c>
+      <c r="C48" s="12"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="1"/>
+    </row>
+    <row r="49" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="54">
+        <f>B44+1</f>
+        <v>42885</v>
+      </c>
+      <c r="C49" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="D49" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="E49" s="15"/>
+      <c r="F49" s="1"/>
+    </row>
+    <row r="50" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="9"/>
+      <c r="E50" s="15"/>
+      <c r="F50" s="1"/>
+    </row>
+    <row r="51" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="55"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="10"/>
+      <c r="E51" s="16"/>
+      <c r="F51" s="1"/>
+    </row>
+    <row r="52" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="1"/>
+    </row>
+    <row r="53" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="7">
+        <f>B54</f>
+        <v>42886</v>
+      </c>
+      <c r="C53" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D53" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E53" s="14"/>
+      <c r="F53" s="1"/>
+    </row>
+    <row r="54" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="54">
+        <f>B49+1</f>
+        <v>42886</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E54" s="15"/>
+      <c r="F54" s="1"/>
+    </row>
+    <row r="55" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="54"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="41"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="1"/>
+    </row>
+    <row r="56" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="10"/>
+      <c r="E56" s="16"/>
+      <c r="F56" s="1"/>
+    </row>
+    <row r="57" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A57" s="1"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="1"/>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
+      <c r="F57" s="1"/>
+    </row>
+    <row r="58" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A58" s="1"/>
+      <c r="B58" s="7">
+        <f>B59</f>
+        <v>42887</v>
+      </c>
+      <c r="C58" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E58" s="14"/>
+      <c r="F58" s="1"/>
+    </row>
+    <row r="59" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="54">
+        <f>B54+1</f>
+        <v>42887</v>
+      </c>
+      <c r="C59" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D59" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E59" s="15"/>
+      <c r="F59" s="1"/>
+    </row>
+    <row r="60" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="54"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="1"/>
+    </row>
+    <row r="61" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="55"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="10"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A62" s="1"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+      <c r="F62" s="1"/>
+    </row>
+    <row r="63" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="1"/>
+      <c r="B63" s="7">
+        <f>B64</f>
+        <v>42888</v>
+      </c>
+      <c r="C63" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D63" s="43" t="s">
+        <v>35</v>
+      </c>
+      <c r="E63" s="14"/>
+      <c r="F63" s="1"/>
+    </row>
+    <row r="64" spans="1:6" ht="27.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="54">
+        <f>B59+1</f>
+        <v>42888</v>
+      </c>
+      <c r="C64" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="D64" s="56" t="s">
+        <v>53</v>
+      </c>
+      <c r="E64" s="15"/>
+      <c r="F64" s="1"/>
+    </row>
+    <row r="65" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="54"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="9"/>
+      <c r="E65" s="15"/>
+      <c r="F65" s="1"/>
+    </row>
+    <row r="66" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="1"/>
+    </row>
+    <row r="67" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A67" s="1"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1"/>
+    </row>
+    <row r="68" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="1"/>
+      <c r="B68" s="7">
+        <f>B69</f>
+        <v>42889</v>
+      </c>
+      <c r="C68" s="11"/>
+      <c r="D68" s="8"/>
+      <c r="E68" s="14"/>
+      <c r="F68" s="1"/>
+    </row>
+    <row r="69" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="54">
+        <f>B64+1</f>
+        <v>42889</v>
+      </c>
+      <c r="C69" s="39"/>
+      <c r="D69" s="39"/>
+      <c r="E69" s="15"/>
+      <c r="F69" s="1"/>
+    </row>
+    <row r="70" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="54"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="9"/>
+      <c r="E70" s="15"/>
+      <c r="F70" s="1"/>
+    </row>
+    <row r="71" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="55"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="1"/>
+    </row>
+    <row r="72" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A72" s="1"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="1"/>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
+      <c r="F72" s="1"/>
+    </row>
+    <row r="73" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A73" s="1"/>
+      <c r="B73" s="7">
+        <f>B74</f>
+        <v>42890</v>
+      </c>
+      <c r="C73" s="11"/>
+      <c r="D73" s="8"/>
+      <c r="E73" s="14"/>
+      <c r="F73" s="1"/>
+    </row>
+    <row r="74" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="54">
+        <f>B69+1</f>
+        <v>42890</v>
+      </c>
+      <c r="C74" s="12"/>
+      <c r="D74" s="9"/>
+      <c r="E74" s="15"/>
+      <c r="F74" s="1"/>
+    </row>
+    <row r="75" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="54"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="15"/>
+      <c r="F75" s="1"/>
+    </row>
+    <row r="76" spans="1:6" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="55"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="10"/>
+      <c r="E76" s="16"/>
+      <c r="F76" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -1,25 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CFCA\000\Project-Process-library1\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Week 20-21" sheetId="6" r:id="rId1"/>
-    <sheet name="Week 08-09" sheetId="5" r:id="rId2"/>
+    <sheet name="Week 22-23" sheetId="7" r:id="rId1"/>
+    <sheet name="Week 20-21" sheetId="6" r:id="rId2"/>
+    <sheet name="Week 08-09" sheetId="5" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Week 08-09'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">'Week 08-09'!$B$2:$E$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Week 22-23'!$B$2:$E$39</definedName>
     <definedName name="valuevx">42.314159</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="47">
   <si>
     <t>MORNING</t>
   </si>
@@ -151,13 +153,58 @@
   </si>
   <si>
     <t>项目整理，产品升级讨论</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>节假日</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>« Every Monday</t>
+  </si>
+  <si>
+    <t>© 2017 PAPERLESS LLC</t>
+  </si>
+  <si>
+    <t>BIWEEKLY WORK SCHEDULE</t>
+  </si>
+  <si>
+    <t>郑州银行无纸化沙县小吃业务上线</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化柜面业务技术对接</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化上线准备</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化支持，预定上线因行内其他业务系统延迟到下周一</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化直连对接方案</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行无纸化柜面业务对接指导</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>平顶山银行无纸化现场支持</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="d"/>
     <numFmt numFmtId="177" formatCode="dddd"/>
@@ -166,7 +213,7 @@
     <numFmt numFmtId="180" formatCode="&quot;Week &quot;00"/>
     <numFmt numFmtId="181" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -302,8 +349,24 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -334,8 +397,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14993743705557422"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -612,12 +681,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color theme="0" tint="-0.34998626667073579"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="55"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="55"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
@@ -702,12 +850,6 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
@@ -731,10 +873,134 @@
     <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="3" fillId="6" borderId="23" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="4" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="2" applyProtection="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="21" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="176" fontId="14" fillId="0" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="28" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="16" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="17" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="18" fillId="3" borderId="15" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="16" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="3" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 2" xfId="2"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="超链接 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1014,7 +1280,1098 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A47" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63:E64"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="2.875" style="56" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="56" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="56" customWidth="1"/>
+    <col min="4" max="5" width="28.25" style="56" customWidth="1"/>
+    <col min="6" max="6" width="18.25" style="56" customWidth="1"/>
+    <col min="7" max="13" width="3.625" style="56" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="56"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="110" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" s="110"/>
+      <c r="D1" s="110"/>
+      <c r="E1" s="113"/>
+      <c r="G1" s="112" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="104"/>
+      <c r="J1" s="105"/>
+      <c r="K1" s="105"/>
+      <c r="L1" s="111"/>
+      <c r="M1" s="111"/>
+      <c r="N1" s="105"/>
+      <c r="O1" s="105"/>
+    </row>
+    <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="109" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="108">
+        <f>C3</f>
+        <v>42884</v>
+      </c>
+      <c r="F2" s="107" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="104"/>
+      <c r="I2" s="104"/>
+      <c r="J2" s="105"/>
+      <c r="K2" s="105"/>
+      <c r="L2" s="105"/>
+      <c r="M2" s="105"/>
+      <c r="N2" s="83"/>
+      <c r="O2" s="83"/>
+    </row>
+    <row r="3" spans="1:15" s="98" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="78">
+        <v>42884</v>
+      </c>
+      <c r="D3" s="78"/>
+      <c r="E3" s="77">
+        <f>1+INT((C3-DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,5)+WEEKDAY(DATE(YEAR(C3+4-WEEKDAY(C3+6)),1,3)))/7)</f>
+        <v>22</v>
+      </c>
+      <c r="F3" s="83"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="103">
+        <v>6</v>
+      </c>
+      <c r="J3" s="102"/>
+      <c r="K3" s="101" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="100">
+        <v>2017</v>
+      </c>
+      <c r="M3" s="99"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="83"/>
+    </row>
+    <row r="4" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="98"/>
+      <c r="B4" s="98"/>
+      <c r="C4" s="98"/>
+      <c r="D4" s="98"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="98"/>
+      <c r="G4" s="97">
+        <f>DATE(L3,I3,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="H4" s="96"/>
+      <c r="I4" s="96"/>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="95"/>
+      <c r="N4" s="83"/>
+      <c r="O4" s="83"/>
+    </row>
+    <row r="5" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="94" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="94" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="94" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="93" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="92" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="92" t="s">
+        <v>10</v>
+      </c>
+      <c r="J5" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="92" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" s="91" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+    </row>
+    <row r="6" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="70">
+        <f>B7</f>
+        <v>42884</v>
+      </c>
+      <c r="C6" s="69"/>
+      <c r="D6" s="68"/>
+      <c r="E6" s="67"/>
+      <c r="F6" s="90"/>
+      <c r="G6" s="89" t="str">
+        <f>IF(WEEKDAY(G4,1)=1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="H6" s="89" t="str">
+        <f>IF(G6="",IF(WEEKDAY(G4,1)=MOD(1,7)+1,G4,""),G6+1)</f>
+        <v/>
+      </c>
+      <c r="I6" s="89" t="str">
+        <f>IF(H6="",IF(WEEKDAY(G4,1)=MOD(1+1,7)+1,G4,""),H6+1)</f>
+        <v/>
+      </c>
+      <c r="J6" s="89" t="str">
+        <f>IF(I6="",IF(WEEKDAY(G4,1)=MOD(1+2,7)+1,G4,""),I6+1)</f>
+        <v/>
+      </c>
+      <c r="K6" s="89">
+        <f>IF(J6="",IF(WEEKDAY(G4,1)=MOD(1+3,7)+1,G4,""),J6+1)</f>
+        <v>42887</v>
+      </c>
+      <c r="L6" s="89">
+        <f>IF(K6="",IF(WEEKDAY(G4,1)=MOD(1+4,7)+1,G4,""),K6+1)</f>
+        <v>42888</v>
+      </c>
+      <c r="M6" s="89">
+        <f>IF(L6="",IF(WEEKDAY(G4,1)=MOD(1+5,7)+1,G4,""),L6+1)</f>
+        <v>42889</v>
+      </c>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+    </row>
+    <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="62"/>
+      <c r="B7" s="66">
+        <f>E2</f>
+        <v>42884</v>
+      </c>
+      <c r="C7" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" s="90"/>
+      <c r="G7" s="89">
+        <f>IF(M6="","",IF(MONTH(M6+1)&lt;&gt;MONTH(M6),"",M6+1))</f>
+        <v>42890</v>
+      </c>
+      <c r="H7" s="89">
+        <f>IF(G7="","",IF(MONTH(G7+1)&lt;&gt;MONTH(G7),"",G7+1))</f>
+        <v>42891</v>
+      </c>
+      <c r="I7" s="89">
+        <f>IF(H7="","",IF(MONTH(H7+1)&lt;&gt;MONTH(H7),"",H7+1))</f>
+        <v>42892</v>
+      </c>
+      <c r="J7" s="89">
+        <f>IF(I7="","",IF(MONTH(I7+1)&lt;&gt;MONTH(I7),"",I7+1))</f>
+        <v>42893</v>
+      </c>
+      <c r="K7" s="89">
+        <f>IF(J7="","",IF(MONTH(J7+1)&lt;&gt;MONTH(J7),"",J7+1))</f>
+        <v>42894</v>
+      </c>
+      <c r="L7" s="89">
+        <f>IF(K7="","",IF(MONTH(K7+1)&lt;&gt;MONTH(K7),"",K7+1))</f>
+        <v>42895</v>
+      </c>
+      <c r="M7" s="89">
+        <f>IF(L7="","",IF(MONTH(L7+1)&lt;&gt;MONTH(L7),"",L7+1))</f>
+        <v>42896</v>
+      </c>
+      <c r="N7" s="83"/>
+      <c r="O7" s="83"/>
+    </row>
+    <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="62"/>
+      <c r="B8" s="66"/>
+      <c r="C8" s="72"/>
+      <c r="D8" s="72"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="90"/>
+      <c r="G8" s="89">
+        <f>IF(M7="","",IF(MONTH(M7+1)&lt;&gt;MONTH(M7),"",M7+1))</f>
+        <v>42897</v>
+      </c>
+      <c r="H8" s="89">
+        <f>IF(G8="","",IF(MONTH(G8+1)&lt;&gt;MONTH(G8),"",G8+1))</f>
+        <v>42898</v>
+      </c>
+      <c r="I8" s="89">
+        <f>IF(H8="","",IF(MONTH(H8+1)&lt;&gt;MONTH(H8),"",H8+1))</f>
+        <v>42899</v>
+      </c>
+      <c r="J8" s="89">
+        <f>IF(I8="","",IF(MONTH(I8+1)&lt;&gt;MONTH(I8),"",I8+1))</f>
+        <v>42900</v>
+      </c>
+      <c r="K8" s="89">
+        <f>IF(J8="","",IF(MONTH(J8+1)&lt;&gt;MONTH(J8),"",J8+1))</f>
+        <v>42901</v>
+      </c>
+      <c r="L8" s="89">
+        <f>IF(K8="","",IF(MONTH(K8+1)&lt;&gt;MONTH(K8),"",K8+1))</f>
+        <v>42902</v>
+      </c>
+      <c r="M8" s="89">
+        <f>IF(L8="","",IF(MONTH(L8+1)&lt;&gt;MONTH(L8),"",L8+1))</f>
+        <v>42903</v>
+      </c>
+      <c r="N8" s="83"/>
+      <c r="O8" s="83"/>
+    </row>
+    <row r="9" spans="1:15" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="61"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="89">
+        <f>IF(M8="","",IF(MONTH(M8+1)&lt;&gt;MONTH(M8),"",M8+1))</f>
+        <v>42904</v>
+      </c>
+      <c r="H9" s="89">
+        <f>IF(G9="","",IF(MONTH(G9+1)&lt;&gt;MONTH(G9),"",G9+1))</f>
+        <v>42905</v>
+      </c>
+      <c r="I9" s="89">
+        <f>IF(H9="","",IF(MONTH(H9+1)&lt;&gt;MONTH(H9),"",H9+1))</f>
+        <v>42906</v>
+      </c>
+      <c r="J9" s="89">
+        <f>IF(I9="","",IF(MONTH(I9+1)&lt;&gt;MONTH(I9),"",I9+1))</f>
+        <v>42907</v>
+      </c>
+      <c r="K9" s="89">
+        <f>IF(J9="","",IF(MONTH(J9+1)&lt;&gt;MONTH(J9),"",J9+1))</f>
+        <v>42908</v>
+      </c>
+      <c r="L9" s="89">
+        <f>IF(K9="","",IF(MONTH(K9+1)&lt;&gt;MONTH(K9),"",K9+1))</f>
+        <v>42909</v>
+      </c>
+      <c r="M9" s="89">
+        <f>IF(L9="","",IF(MONTH(L9+1)&lt;&gt;MONTH(L9),"",L9+1))</f>
+        <v>42910</v>
+      </c>
+      <c r="N9" s="83"/>
+      <c r="O9" s="83"/>
+    </row>
+    <row r="10" spans="1:15" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="71"/>
+      <c r="G10" s="89">
+        <f>IF(M9="","",IF(MONTH(M9+1)&lt;&gt;MONTH(M9),"",M9+1))</f>
+        <v>42911</v>
+      </c>
+      <c r="H10" s="89">
+        <f>IF(G10="","",IF(MONTH(G10+1)&lt;&gt;MONTH(G10),"",G10+1))</f>
+        <v>42912</v>
+      </c>
+      <c r="I10" s="89">
+        <f>IF(H10="","",IF(MONTH(H10+1)&lt;&gt;MONTH(H10),"",H10+1))</f>
+        <v>42913</v>
+      </c>
+      <c r="J10" s="89">
+        <f>IF(I10="","",IF(MONTH(I10+1)&lt;&gt;MONTH(I10),"",I10+1))</f>
+        <v>42914</v>
+      </c>
+      <c r="K10" s="89">
+        <f>IF(J10="","",IF(MONTH(J10+1)&lt;&gt;MONTH(J10),"",J10+1))</f>
+        <v>42915</v>
+      </c>
+      <c r="L10" s="89">
+        <f>IF(K10="","",IF(MONTH(K10+1)&lt;&gt;MONTH(K10),"",K10+1))</f>
+        <v>42916</v>
+      </c>
+      <c r="M10" s="89" t="str">
+        <f>IF(L10="","",IF(MONTH(L10+1)&lt;&gt;MONTH(L10),"",L10+1))</f>
+        <v/>
+      </c>
+      <c r="N10" s="83"/>
+      <c r="O10" s="83"/>
+    </row>
+    <row r="11" spans="1:15" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="70">
+        <f>B12</f>
+        <v>42885</v>
+      </c>
+      <c r="C11" s="69"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="57"/>
+      <c r="G11" s="89" t="str">
+        <f>IF(M10="","",IF(MONTH(M10+1)&lt;&gt;MONTH(M10),"",M10+1))</f>
+        <v/>
+      </c>
+      <c r="H11" s="89" t="str">
+        <f>IF(G11="","",IF(MONTH(G11+1)&lt;&gt;MONTH(G11),"",G11+1))</f>
+        <v/>
+      </c>
+      <c r="I11" s="89" t="str">
+        <f>IF(H11="","",IF(MONTH(H11+1)&lt;&gt;MONTH(H11),"",H11+1))</f>
+        <v/>
+      </c>
+      <c r="J11" s="89" t="str">
+        <f>IF(I11="","",IF(MONTH(I11+1)&lt;&gt;MONTH(I11),"",I11+1))</f>
+        <v/>
+      </c>
+      <c r="K11" s="89" t="str">
+        <f>IF(J11="","",IF(MONTH(J11+1)&lt;&gt;MONTH(J11),"",J11+1))</f>
+        <v/>
+      </c>
+      <c r="L11" s="89" t="str">
+        <f>IF(K11="","",IF(MONTH(K11+1)&lt;&gt;MONTH(K11),"",K11+1))</f>
+        <v/>
+      </c>
+      <c r="M11" s="89" t="str">
+        <f>IF(L11="","",IF(MONTH(L11+1)&lt;&gt;MONTH(L11),"",L11+1))</f>
+        <v/>
+      </c>
+      <c r="N11" s="83"/>
+      <c r="O11" s="83"/>
+    </row>
+    <row r="12" spans="1:15" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="66">
+        <f>B7+1</f>
+        <v>42885</v>
+      </c>
+      <c r="C12" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="72" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="57"/>
+      <c r="G12" s="84"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="84"/>
+      <c r="M12" s="84"/>
+      <c r="N12" s="83"/>
+      <c r="O12" s="83"/>
+    </row>
+    <row r="13" spans="1:15" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="66"/>
+      <c r="C13" s="72"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="57"/>
+      <c r="G13" s="85" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="84"/>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="84"/>
+      <c r="M13" s="84"/>
+      <c r="N13" s="83"/>
+      <c r="O13" s="83"/>
+    </row>
+    <row r="14" spans="1:15" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="61"/>
+      <c r="C14" s="87"/>
+      <c r="D14" s="87"/>
+      <c r="E14" s="86"/>
+      <c r="F14" s="57"/>
+      <c r="G14" s="85" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="84"/>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="84"/>
+      <c r="M14" s="84"/>
+      <c r="N14" s="83"/>
+      <c r="O14" s="83"/>
+    </row>
+    <row r="15" spans="1:15" s="62" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="71"/>
+      <c r="G15" s="85" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="84"/>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="84"/>
+      <c r="M15" s="84"/>
+      <c r="N15" s="83"/>
+      <c r="O15" s="83"/>
+    </row>
+    <row r="16" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="62"/>
+      <c r="B16" s="70">
+        <f>B17</f>
+        <v>42886</v>
+      </c>
+      <c r="C16" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D16" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="57"/>
+      <c r="G16" s="82"/>
+      <c r="H16" s="62"/>
+      <c r="I16" s="62"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="62"/>
+      <c r="B17" s="66">
+        <f>B12+1</f>
+        <v>42886</v>
+      </c>
+      <c r="C17" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="72" t="s">
+        <v>30</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="82"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="62"/>
+      <c r="B18" s="66"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="82"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="62"/>
+      <c r="B19" s="61"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="57"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="71"/>
+    </row>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="70">
+        <f>B22</f>
+        <v>42887</v>
+      </c>
+      <c r="C21" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" s="57"/>
+    </row>
+    <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="62"/>
+      <c r="B22" s="66">
+        <f>B17+1</f>
+        <v>42887</v>
+      </c>
+      <c r="C22" s="72" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" s="72" t="s">
+        <v>42</v>
+      </c>
+      <c r="E22" s="72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" s="57"/>
+    </row>
+    <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="62"/>
+      <c r="B23" s="66"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="57"/>
+    </row>
+    <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="62"/>
+      <c r="B24" s="61"/>
+      <c r="C24" s="60"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="57"/>
+    </row>
+    <row r="25" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="71"/>
+    </row>
+    <row r="26" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="70">
+        <f>B27</f>
+        <v>42888</v>
+      </c>
+      <c r="C26" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" s="114"/>
+      <c r="F26" s="57"/>
+    </row>
+    <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="62"/>
+      <c r="B27" s="66">
+        <f>B22+1</f>
+        <v>42888</v>
+      </c>
+      <c r="C27" s="72" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="72"/>
+      <c r="F27" s="57"/>
+    </row>
+    <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="62"/>
+      <c r="B28" s="66"/>
+      <c r="C28" s="72"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="57"/>
+    </row>
+    <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="62"/>
+      <c r="B29" s="61"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="57"/>
+    </row>
+    <row r="30" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="71"/>
+    </row>
+    <row r="31" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="70">
+        <f>B32</f>
+        <v>42889</v>
+      </c>
+      <c r="C31" s="69"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="67"/>
+      <c r="F31" s="57"/>
+    </row>
+    <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="62"/>
+      <c r="B32" s="66">
+        <f>B27+1</f>
+        <v>42889</v>
+      </c>
+      <c r="C32" s="72"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="81"/>
+      <c r="F32" s="57"/>
+    </row>
+    <row r="33" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="62"/>
+      <c r="B33" s="66"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="64"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="57"/>
+    </row>
+    <row r="34" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="62"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="58"/>
+      <c r="F34" s="57"/>
+    </row>
+    <row r="35" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="71"/>
+    </row>
+    <row r="36" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="70">
+        <f>B37</f>
+        <v>42890</v>
+      </c>
+      <c r="C36" s="69"/>
+      <c r="D36" s="68"/>
+      <c r="E36" s="67"/>
+      <c r="F36" s="57"/>
+    </row>
+    <row r="37" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="62"/>
+      <c r="B37" s="66">
+        <f>B32+1</f>
+        <v>42890</v>
+      </c>
+      <c r="C37" s="72"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="81"/>
+      <c r="F37" s="57"/>
+    </row>
+    <row r="38" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="62"/>
+      <c r="B38" s="66"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="57"/>
+    </row>
+    <row r="39" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="62"/>
+      <c r="B39" s="61"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="58"/>
+      <c r="F39" s="57"/>
+    </row>
+    <row r="40" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="71"/>
+    </row>
+    <row r="41" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="80"/>
+      <c r="B41" s="79" t="s">
+        <v>4</v>
+      </c>
+      <c r="C41" s="78">
+        <f>C3+7</f>
+        <v>42891</v>
+      </c>
+      <c r="D41" s="78"/>
+      <c r="E41" s="77">
+        <f>1+INT((C41-DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,5)+WEEKDAY(DATE(YEAR(C41+4-WEEKDAY(C41+6)),1,3)))/7)</f>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="43" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="70">
+        <f>B44</f>
+        <v>42891</v>
+      </c>
+      <c r="C43" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D43" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E43" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="57"/>
+    </row>
+    <row r="44" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="62"/>
+      <c r="B44" s="66">
+        <f>B37+1</f>
+        <v>42891</v>
+      </c>
+      <c r="C44" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="D44" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="E44" s="72" t="s">
+        <v>39</v>
+      </c>
+      <c r="F44" s="57"/>
+    </row>
+    <row r="45" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="62"/>
+      <c r="B45" s="66"/>
+      <c r="C45" s="72"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="74"/>
+      <c r="F45" s="57"/>
+    </row>
+    <row r="46" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="62"/>
+      <c r="B46" s="61"/>
+      <c r="C46" s="60"/>
+      <c r="D46" s="59"/>
+      <c r="E46" s="73"/>
+      <c r="F46" s="57"/>
+    </row>
+    <row r="47" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="62"/>
+      <c r="B47" s="71"/>
+      <c r="C47" s="62"/>
+      <c r="D47" s="62"/>
+      <c r="E47" s="62"/>
+    </row>
+    <row r="48" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="62"/>
+      <c r="B48" s="70">
+        <f>B49</f>
+        <v>42892</v>
+      </c>
+      <c r="C48" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D48" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F48" s="57"/>
+    </row>
+    <row r="49" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="62"/>
+      <c r="B49" s="66">
+        <f>B44+1</f>
+        <v>42892</v>
+      </c>
+      <c r="C49" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D49" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E49" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F49" s="57"/>
+    </row>
+    <row r="50" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="62"/>
+      <c r="B50" s="66"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="74"/>
+      <c r="E50" s="76"/>
+      <c r="F50" s="57"/>
+    </row>
+    <row r="51" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="62"/>
+      <c r="B51" s="61"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="73"/>
+      <c r="F51" s="57"/>
+    </row>
+    <row r="52" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="62"/>
+      <c r="B52" s="71"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="62"/>
+    </row>
+    <row r="53" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="62"/>
+      <c r="B53" s="70">
+        <f>B54</f>
+        <v>42893</v>
+      </c>
+      <c r="C53" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D53" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E53" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F53" s="57"/>
+    </row>
+    <row r="54" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="62"/>
+      <c r="B54" s="66">
+        <f>B49+1</f>
+        <v>42893</v>
+      </c>
+      <c r="C54" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="D54" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" s="72" t="s">
+        <v>45</v>
+      </c>
+      <c r="F54" s="57"/>
+    </row>
+    <row r="55" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="62"/>
+      <c r="B55" s="66"/>
+      <c r="C55" s="72"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="72"/>
+      <c r="F55" s="57"/>
+    </row>
+    <row r="56" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="62"/>
+      <c r="B56" s="61"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="73"/>
+      <c r="F56" s="57"/>
+    </row>
+    <row r="57" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B57" s="71"/>
+    </row>
+    <row r="58" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B58" s="70">
+        <f>B59</f>
+        <v>42894</v>
+      </c>
+      <c r="C58" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D58" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E58" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="57"/>
+    </row>
+    <row r="59" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="62"/>
+      <c r="B59" s="66">
+        <f>B54+1</f>
+        <v>42894</v>
+      </c>
+      <c r="C59" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D59" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E59" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F59" s="57"/>
+    </row>
+    <row r="60" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="62"/>
+      <c r="B60" s="66"/>
+      <c r="C60" s="72"/>
+      <c r="D60" s="72"/>
+      <c r="E60" s="74"/>
+      <c r="F60" s="57"/>
+    </row>
+    <row r="61" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="62"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="59"/>
+      <c r="E61" s="73"/>
+      <c r="F61" s="57"/>
+    </row>
+    <row r="62" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="71"/>
+    </row>
+    <row r="63" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="70">
+        <f>B64</f>
+        <v>42895</v>
+      </c>
+      <c r="C63" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="D63" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="114" t="s">
+        <v>22</v>
+      </c>
+      <c r="F63" s="57"/>
+    </row>
+    <row r="64" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="62"/>
+      <c r="B64" s="66">
+        <f>B59+1</f>
+        <v>42895</v>
+      </c>
+      <c r="C64" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="D64" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="E64" s="72" t="s">
+        <v>46</v>
+      </c>
+      <c r="F64" s="57"/>
+    </row>
+    <row r="65" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="62"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="72"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="74"/>
+      <c r="F65" s="57"/>
+    </row>
+    <row r="66" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="62"/>
+      <c r="B66" s="61"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="73"/>
+      <c r="F66" s="57"/>
+    </row>
+    <row r="67" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="71"/>
+    </row>
+    <row r="68" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="70">
+        <f>B69</f>
+        <v>42896</v>
+      </c>
+      <c r="C68" s="69"/>
+      <c r="D68" s="68"/>
+      <c r="E68" s="67"/>
+      <c r="F68" s="57"/>
+    </row>
+    <row r="69" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="62"/>
+      <c r="B69" s="66">
+        <f>B64+1</f>
+        <v>42896</v>
+      </c>
+      <c r="C69" s="72"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
+      <c r="F69" s="57"/>
+    </row>
+    <row r="70" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="62"/>
+      <c r="B70" s="66"/>
+      <c r="C70" s="72"/>
+      <c r="D70" s="72"/>
+      <c r="E70" s="72"/>
+      <c r="F70" s="57"/>
+    </row>
+    <row r="71" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="62"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="58"/>
+      <c r="F71" s="57"/>
+    </row>
+    <row r="72" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="71"/>
+    </row>
+    <row r="73" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B73" s="70">
+        <f>B74</f>
+        <v>42897</v>
+      </c>
+      <c r="C73" s="69"/>
+      <c r="D73" s="68"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="57"/>
+    </row>
+    <row r="74" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="62"/>
+      <c r="B74" s="66">
+        <f>B69+1</f>
+        <v>42897</v>
+      </c>
+      <c r="C74" s="65"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="63"/>
+      <c r="F74" s="57"/>
+    </row>
+    <row r="75" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="62"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="65"/>
+      <c r="D75" s="64"/>
+      <c r="E75" s="63"/>
+      <c r="F75" s="57"/>
+    </row>
+    <row r="76" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="62"/>
+      <c r="B76" s="61"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="59"/>
+      <c r="E76" s="58"/>
+      <c r="F76" s="57"/>
+    </row>
+  </sheetData>
+  <mergeCells count="19">
+    <mergeCell ref="B27:B29"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="G4:M4"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B17:B19"/>
+    <mergeCell ref="B22:B24"/>
+  </mergeCells>
+  <phoneticPr fontId="11" type="noConversion"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.34930555555555598" right="0.34930555555555598" top="0.5" bottom="0.5" header="0.25" footer="0.25"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;L&amp;8Weekly Schedule Template, © 2013 Vertex42 LLC, Free to Print.&amp;R&amp;8&amp;K000000http://www.vertex42.com/ExcelTemplates/weekly-schedule.html</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O76"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
       <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
@@ -1030,11 +2387,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>25</v>
@@ -1043,14 +2400,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -1098,10 +2455,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>2016</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -1112,16 +2469,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42491</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -1202,7 +2559,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="54">
         <f>E2</f>
         <v>42870</v>
       </c>
@@ -1246,7 +2603,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -1282,7 +2639,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -1393,7 +2750,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="54">
         <f>B7+1</f>
         <v>42871</v>
       </c>
@@ -1415,7 +2772,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="39"/>
       <c r="D13" s="39"/>
       <c r="E13" s="15"/>
@@ -1432,7 +2789,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -1482,7 +2839,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="54">
         <f>B12+1</f>
         <v>42872</v>
       </c>
@@ -1497,7 +2854,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -1505,7 +2862,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -1528,7 +2885,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="54">
         <f>B17+1</f>
         <v>42873</v>
       </c>
@@ -1542,7 +2899,7 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="39" t="s">
         <v>31</v>
       </c>
@@ -1553,7 +2910,7 @@
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -1576,7 +2933,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="54">
         <f>B22+1</f>
         <v>42874</v>
       </c>
@@ -1590,14 +2947,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="45"/>
       <c r="D28" s="44"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -1616,7 +2973,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="54">
         <f>B27+1</f>
         <v>42875</v>
       </c>
@@ -1626,14 +2983,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -1652,7 +3009,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="54">
         <f>B32+1</f>
         <v>42876</v>
       </c>
@@ -1662,14 +3019,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -1705,7 +3062,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="54">
         <f>B37+1</f>
         <v>42877</v>
       </c>
@@ -1719,14 +3076,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -1754,7 +3111,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="54">
         <f>B44+1</f>
         <v>42878</v>
       </c>
@@ -1764,14 +3121,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -1795,7 +3152,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="54">
         <f>B49+1</f>
         <v>42879</v>
       </c>
@@ -1809,14 +3166,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -1835,7 +3192,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="54">
         <f>B54+1</f>
         <v>42880</v>
       </c>
@@ -1849,14 +3206,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -1875,7 +3232,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="54">
         <f>B59+1</f>
         <v>42881</v>
       </c>
@@ -1889,14 +3246,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -1919,7 +3276,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="54">
         <f>B64+1</f>
         <v>42882</v>
       </c>
@@ -1927,14 +3284,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -1953,7 +3310,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="54">
         <f>B69+1</f>
         <v>42883</v>
       </c>
@@ -1963,20 +3320,29 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B74:B76"/>
+    <mergeCell ref="B44:B46"/>
+    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B37:B39"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="L3:M3"/>
@@ -1987,15 +3353,6 @@
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B1:D1"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B74:B76"/>
-    <mergeCell ref="B44:B46"/>
-    <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B37:B39"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2003,7 +3360,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O76"/>
   <sheetViews>
@@ -2023,11 +3380,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="50" t="s">
+      <c r="B1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="50"/>
-      <c r="D1" s="50"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
       <c r="E1" s="19"/>
       <c r="G1" s="24" t="s">
         <v>19</v>
@@ -2036,14 +3393,14 @@
       <c r="I1" s="26"/>
       <c r="J1" s="27"/>
       <c r="K1" s="27"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
     <row r="2" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
       <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
@@ -2091,10 +3448,10 @@
       <c r="K3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="L3" s="51">
+      <c r="L3" s="49">
         <v>2017</v>
       </c>
-      <c r="M3" s="52"/>
+      <c r="M3" s="50"/>
       <c r="N3" s="20"/>
       <c r="O3" s="20"/>
     </row>
@@ -2105,16 +3462,16 @@
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="53">
+      <c r="G4" s="51">
         <f>DATE(L3,I3,1)</f>
         <v>42795</v>
       </c>
-      <c r="H4" s="54"/>
-      <c r="I4" s="54"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="54"/>
-      <c r="L4" s="54"/>
-      <c r="M4" s="55"/>
+      <c r="H4" s="52"/>
+      <c r="I4" s="52"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="53"/>
       <c r="N4" s="20"/>
       <c r="O4" s="20"/>
     </row>
@@ -2197,7 +3554,7 @@
     </row>
     <row r="7" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
-      <c r="B7" s="47">
+      <c r="B7" s="54">
         <f>E2</f>
         <v>42814</v>
       </c>
@@ -2241,7 +3598,7 @@
     </row>
     <row r="8" spans="1:15" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
-      <c r="B8" s="47"/>
+      <c r="B8" s="54"/>
       <c r="C8" s="39"/>
       <c r="D8" s="39"/>
       <c r="E8" s="40"/>
@@ -2277,7 +3634,7 @@
       <c r="O8" s="20"/>
     </row>
     <row r="9" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="48"/>
+      <c r="B9" s="55"/>
       <c r="C9" s="13"/>
       <c r="D9" s="10"/>
       <c r="E9" s="16"/>
@@ -2390,7 +3747,7 @@
       <c r="O11" s="20"/>
     </row>
     <row r="12" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="47">
+      <c r="B12" s="54">
         <f>B7+1</f>
         <v>42815</v>
       </c>
@@ -2412,7 +3769,7 @@
       <c r="O12" s="20"/>
     </row>
     <row r="13" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="47"/>
+      <c r="B13" s="54"/>
       <c r="C13" s="12"/>
       <c r="D13" s="9"/>
       <c r="E13" s="15"/>
@@ -2429,7 +3786,7 @@
       <c r="O13" s="20"/>
     </row>
     <row r="14" spans="1:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="48"/>
+      <c r="B14" s="55"/>
       <c r="C14" s="13"/>
       <c r="D14" s="10"/>
       <c r="E14" s="16"/>
@@ -2479,7 +3836,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
-      <c r="B17" s="47">
+      <c r="B17" s="54">
         <f>B12+1</f>
         <v>42816</v>
       </c>
@@ -2494,7 +3851,7 @@
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
-      <c r="B18" s="47"/>
+      <c r="B18" s="54"/>
       <c r="C18" s="12"/>
       <c r="D18" s="9"/>
       <c r="E18" s="15"/>
@@ -2502,7 +3859,7 @@
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
-      <c r="B19" s="48"/>
+      <c r="B19" s="55"/>
       <c r="C19" s="13"/>
       <c r="D19" s="10"/>
       <c r="E19" s="16"/>
@@ -2525,7 +3882,7 @@
     </row>
     <row r="22" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="47">
+      <c r="B22" s="54">
         <f>B17+1</f>
         <v>42817</v>
       </c>
@@ -2539,14 +3896,14 @@
     </row>
     <row r="23" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="47"/>
+      <c r="B23" s="54"/>
       <c r="C23" s="12"/>
       <c r="D23" s="9"/>
       <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="48"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="13"/>
       <c r="D24" s="10"/>
       <c r="E24" s="16"/>
@@ -2569,7 +3926,7 @@
     </row>
     <row r="27" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
-      <c r="B27" s="47">
+      <c r="B27" s="54">
         <f>B22+1</f>
         <v>42818</v>
       </c>
@@ -2583,14 +3940,14 @@
     </row>
     <row r="28" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
-      <c r="B28" s="47"/>
+      <c r="B28" s="54"/>
       <c r="C28" s="12"/>
       <c r="D28" s="9"/>
       <c r="E28" s="15"/>
     </row>
     <row r="29" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
-      <c r="B29" s="48"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="13"/>
       <c r="D29" s="10"/>
       <c r="E29" s="16"/>
@@ -2609,7 +3966,7 @@
     </row>
     <row r="32" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
-      <c r="B32" s="47">
+      <c r="B32" s="54">
         <f>B27+1</f>
         <v>42819</v>
       </c>
@@ -2619,14 +3976,14 @@
     </row>
     <row r="33" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
-      <c r="B33" s="47"/>
+      <c r="B33" s="54"/>
       <c r="C33" s="12"/>
       <c r="D33" s="9"/>
       <c r="E33" s="15"/>
     </row>
     <row r="34" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="48"/>
+      <c r="B34" s="55"/>
       <c r="C34" s="13"/>
       <c r="D34" s="10"/>
       <c r="E34" s="16"/>
@@ -2645,7 +4002,7 @@
     </row>
     <row r="37" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
-      <c r="B37" s="47">
+      <c r="B37" s="54">
         <f>B32+1</f>
         <v>42820</v>
       </c>
@@ -2655,14 +4012,14 @@
     </row>
     <row r="38" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
-      <c r="B38" s="47"/>
+      <c r="B38" s="54"/>
       <c r="C38" s="12"/>
       <c r="D38" s="9"/>
       <c r="E38" s="15"/>
     </row>
     <row r="39" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="48"/>
+      <c r="B39" s="55"/>
       <c r="C39" s="13"/>
       <c r="D39" s="10"/>
       <c r="E39" s="16"/>
@@ -2698,7 +4055,7 @@
     </row>
     <row r="44" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="47">
+      <c r="B44" s="54">
         <f>B37+1</f>
         <v>42821</v>
       </c>
@@ -2708,14 +4065,14 @@
     </row>
     <row r="45" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="47"/>
+      <c r="B45" s="54"/>
       <c r="C45" s="39"/>
       <c r="D45" s="9"/>
       <c r="E45" s="15"/>
     </row>
     <row r="46" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="48"/>
+      <c r="B46" s="55"/>
       <c r="C46" s="13"/>
       <c r="D46" s="10"/>
       <c r="E46" s="16"/>
@@ -2739,7 +4096,7 @@
     </row>
     <row r="49" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
-      <c r="B49" s="47">
+      <c r="B49" s="54">
         <f>B44+1</f>
         <v>42822</v>
       </c>
@@ -2749,14 +4106,14 @@
     </row>
     <row r="50" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="47"/>
+      <c r="B50" s="54"/>
       <c r="C50" s="12"/>
       <c r="D50" s="9"/>
       <c r="E50" s="15"/>
     </row>
     <row r="51" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="48"/>
+      <c r="B51" s="55"/>
       <c r="C51" s="13"/>
       <c r="D51" s="10"/>
       <c r="E51" s="16"/>
@@ -2780,7 +4137,7 @@
     </row>
     <row r="54" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="47">
+      <c r="B54" s="54">
         <f>B49+1</f>
         <v>42823</v>
       </c>
@@ -2790,14 +4147,14 @@
     </row>
     <row r="55" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
-      <c r="B55" s="47"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="12"/>
       <c r="D55" s="41"/>
       <c r="E55" s="15"/>
     </row>
     <row r="56" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
-      <c r="B56" s="48"/>
+      <c r="B56" s="55"/>
       <c r="C56" s="13"/>
       <c r="D56" s="10"/>
       <c r="E56" s="16"/>
@@ -2816,7 +4173,7 @@
     </row>
     <row r="59" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="47">
+      <c r="B59" s="54">
         <f>B54+1</f>
         <v>42824</v>
       </c>
@@ -2826,14 +4183,14 @@
     </row>
     <row r="60" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="47"/>
+      <c r="B60" s="54"/>
       <c r="C60" s="12"/>
       <c r="D60" s="42"/>
       <c r="E60" s="15"/>
     </row>
     <row r="61" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
-      <c r="B61" s="48"/>
+      <c r="B61" s="55"/>
       <c r="C61" s="13"/>
       <c r="D61" s="10"/>
       <c r="E61" s="16"/>
@@ -2852,7 +4209,7 @@
     </row>
     <row r="64" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
-      <c r="B64" s="47">
+      <c r="B64" s="54">
         <f>B59+1</f>
         <v>42825</v>
       </c>
@@ -2862,14 +4219,14 @@
     </row>
     <row r="65" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="47"/>
+      <c r="B65" s="54"/>
       <c r="C65" s="12"/>
       <c r="D65" s="9"/>
       <c r="E65" s="15"/>
     </row>
     <row r="66" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
-      <c r="B66" s="48"/>
+      <c r="B66" s="55"/>
       <c r="C66" s="13"/>
       <c r="D66" s="10"/>
       <c r="E66" s="16"/>
@@ -2888,7 +4245,7 @@
     </row>
     <row r="69" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
-      <c r="B69" s="47">
+      <c r="B69" s="54">
         <f>B64+1</f>
         <v>42826</v>
       </c>
@@ -2898,14 +4255,14 @@
     </row>
     <row r="70" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="54"/>
       <c r="C70" s="12"/>
       <c r="D70" s="9"/>
       <c r="E70" s="15"/>
     </row>
     <row r="71" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
-      <c r="B71" s="48"/>
+      <c r="B71" s="55"/>
       <c r="C71" s="13"/>
       <c r="D71" s="10"/>
       <c r="E71" s="16"/>
@@ -2924,7 +4281,7 @@
     </row>
     <row r="74" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="47">
+      <c r="B74" s="54">
         <f>B69+1</f>
         <v>42827</v>
       </c>
@@ -2934,20 +4291,25 @@
     </row>
     <row r="75" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="47"/>
+      <c r="B75" s="54"/>
       <c r="C75" s="12"/>
       <c r="D75" s="9"/>
       <c r="E75" s="15"/>
     </row>
     <row r="76" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
-      <c r="B76" s="48"/>
+      <c r="B76" s="55"/>
       <c r="C76" s="13"/>
       <c r="D76" s="10"/>
       <c r="E76" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="B54:B56"/>
+    <mergeCell ref="B59:B61"/>
+    <mergeCell ref="B64:B66"/>
+    <mergeCell ref="B69:B71"/>
+    <mergeCell ref="B74:B76"/>
     <mergeCell ref="L1:M1"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="G4:M4"/>
@@ -2962,11 +4324,6 @@
     <mergeCell ref="B22:B24"/>
     <mergeCell ref="B27:B29"/>
     <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B54:B56"/>
-    <mergeCell ref="B59:B61"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B69:B71"/>
-    <mergeCell ref="B74:B76"/>
   </mergeCells>
   <phoneticPr fontId="11" type="noConversion"/>
   <printOptions horizontalCentered="1"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\0000\Project-Process-library\Weekly Schedule\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\program\Project-Process-library\Weekly Schedule\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="week26-27" sheetId="7" r:id="rId1"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId2"/>
+    <sheet name="week36-37" sheetId="8" r:id="rId1"/>
+    <sheet name="week26-27" sheetId="7" r:id="rId2"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="83">
   <si>
     <t>分组</t>
   </si>
@@ -259,13 +260,40 @@
   </si>
   <si>
     <t>天津银行需求文档编写11111111111111111</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>初评新人汇报</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目整理</t>
+  </si>
+  <si>
+    <t>平顶山银行无纸化，前置程序更新，协助客户测试，集成，文档更新，项目验收文档准备</t>
+  </si>
+  <si>
+    <t>处理百瑞信托挂载FTP</t>
+  </si>
+  <si>
+    <t>准备郑州银行新筹建消费金融无纸化建设PPT</t>
+  </si>
+  <si>
+    <t>消费金融技术交流</t>
+  </si>
+  <si>
+    <t>返京</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>无纸化一体机</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
@@ -838,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -941,6 +969,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -950,6 +984,15 @@
     <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -963,15 +1006,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1378,30 +1412,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:K9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="15" width="26.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1413,87 +1446,87 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="36" t="s">
+      <c r="A2" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="34">
-        <f>DATE(2017,6,26)</f>
-        <v>42912</v>
-      </c>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34">
+      <c r="B2" s="36">
+        <f>DATE(2017,9,11)</f>
+        <v>42989</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
         <f>SUM(B2+1)</f>
-        <v>42913</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34">
+        <v>42990</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42914</v>
-      </c>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34">
+        <v>42991</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42915</v>
-      </c>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34">
+        <v>42992</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42916</v>
-      </c>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34">
+        <v>42993</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42917</v>
-      </c>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34">
+        <v>42994</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42918</v>
-      </c>
-      <c r="O2" s="34"/>
+        <v>42995</v>
+      </c>
+      <c r="O2" s="36"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="36"/>
-      <c r="B3" s="32" t="s">
+      <c r="A3" s="38"/>
+      <c r="B3" s="34" t="s">
         <v>60</v>
       </c>
-      <c r="C3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="32" t="s">
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
         <v>3</v>
       </c>
     </row>
@@ -1502,55 +1535,55 @@
         <v>73</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>64</v>
+        <v>80</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="33"/>
+      <c r="O4" s="35"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1562,47 +1595,384 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="38" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="34">
+      <c r="B7" s="36">
+        <f>B2+7</f>
+        <v>42996</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42997</v>
+      </c>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42998</v>
+      </c>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42999</v>
+      </c>
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>43000</v>
+      </c>
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>43001</v>
+      </c>
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>43002</v>
+      </c>
+      <c r="O7" s="36"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="38"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>26</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="36">
+        <f>DATE(2017,6,26)</f>
+        <v>42912</v>
+      </c>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36">
+        <f>SUM(B2+1)</f>
+        <v>42913</v>
+      </c>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42914</v>
+      </c>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42915</v>
+      </c>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42916</v>
+      </c>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42917</v>
+      </c>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42918</v>
+      </c>
+      <c r="O2" s="36"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="38"/>
+      <c r="B3" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="32" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="33"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="37" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>27</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="36">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34">
+      <c r="C7" s="36"/>
+      <c r="D7" s="36">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34">
+      <c r="E7" s="36"/>
+      <c r="F7" s="36">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34">
+      <c r="G7" s="36"/>
+      <c r="H7" s="36">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34">
+      <c r="I7" s="36"/>
+      <c r="J7" s="36">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="34"/>
-      <c r="L7" s="34">
+      <c r="K7" s="36"/>
+      <c r="L7" s="36">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="34"/>
-      <c r="N7" s="34">
+      <c r="M7" s="36"/>
+      <c r="N7" s="36">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="34"/>
+      <c r="O7" s="36"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="36"/>
+      <c r="A8" s="38"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -1687,6 +2057,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -1700,18 +2075,14 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -1719,7 +2090,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="2" width="10.625" style="1" customWidth="1"/>
     <col min="3" max="14" width="20.625" style="1" customWidth="1"/>
@@ -1727,32 +2098,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44" t="s">
+      <c r="D1" s="40"/>
+      <c r="E1" s="41" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44" t="s">
+      <c r="F1" s="41"/>
+      <c r="G1" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44" t="s">
+      <c r="H1" s="41"/>
+      <c r="I1" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="42" t="s">
+      <c r="J1" s="41"/>
+      <c r="K1" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="43"/>
+      <c r="L1" s="40"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -1761,8 +2132,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1817,7 +2188,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="39" t="s">
+      <c r="A4" s="44" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1837,7 +2208,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="37"/>
+      <c r="A5" s="42"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -1855,7 +2226,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="38"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -1873,7 +2244,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="39" t="s">
+      <c r="A7" s="44" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -1893,7 +2264,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="37"/>
+      <c r="A8" s="42"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -1911,7 +2282,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="38"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -1929,7 +2300,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="44" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -1949,7 +2320,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="37"/>
+      <c r="A11" s="42"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -1967,7 +2338,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="38"/>
+      <c r="A12" s="43"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2005,7 +2376,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="39" t="s">
+      <c r="A14" s="44" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2025,7 +2396,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="37"/>
+      <c r="A15" s="42"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2043,7 +2414,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="38"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2061,7 +2432,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="42" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2081,7 +2452,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="37"/>
+      <c r="A18" s="42"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2099,7 +2470,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="38"/>
+      <c r="A19" s="43"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2117,7 +2488,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="39" t="s">
+      <c r="A20" s="44" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2137,7 +2508,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="37"/>
+      <c r="A21" s="42"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2155,7 +2526,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="38"/>
+      <c r="A22" s="43"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2213,7 +2584,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="39" t="s">
+      <c r="A25" s="44" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2233,7 +2604,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="38"/>
+      <c r="A26" s="43"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2251,7 +2622,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="45" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2271,7 +2642,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="40"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2289,7 +2660,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="40"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2307,7 +2678,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="40"/>
+      <c r="A30" s="45"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2325,7 +2696,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="40"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2343,7 +2714,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="40"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2361,7 +2732,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="40"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2379,7 +2750,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="40"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2397,7 +2768,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="40"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2415,7 +2786,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="40"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2433,7 +2804,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="40"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2452,11 +2823,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2467,6 +2833,11 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
   </mergeCells>
   <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
+++ b/Weekly Schedule/biweekly-work-schedule-韩智凯.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,16 +12,18 @@
     <workbookView xWindow="-195" yWindow="135" windowWidth="20730" windowHeight="11025" tabRatio="781"/>
   </bookViews>
   <sheets>
-    <sheet name="week36-37" sheetId="8" r:id="rId1"/>
-    <sheet name="week26-27" sheetId="7" r:id="rId2"/>
-    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId3"/>
+    <sheet name="week43-44" sheetId="9" r:id="rId1"/>
+    <sheet name="week41-42" sheetId="11" r:id="rId2"/>
+    <sheet name="week36-37" sheetId="8" r:id="rId3"/>
+    <sheet name="week26-27" sheetId="7" r:id="rId4"/>
+    <sheet name="20160328-20160403" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="103">
   <si>
     <t>分组</t>
   </si>
@@ -204,67 +206,67 @@
   </si>
   <si>
     <t>上午</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>学习RA部署</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>RA+KT接口调用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>RA+KT接口调用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>晋城银行方案编制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>延边农商行方案编制</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>晋城银行无纸化交流（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>包商银行方案</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>出差晋城银行（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>百度金融无纸化交流（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>成都银行无纸化投标（外出）</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>小贷平台多方签署方案实施学习</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>KT+RA+SADK全流程接口调用</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>韩智凯</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>天津银行需求文档编写11111111111111111</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>初评新人汇报</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>项目整理</t>
@@ -283,11 +285,83 @@
   </si>
   <si>
     <t>返京</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
   </si>
   <si>
     <t>无纸化一体机</t>
-    <phoneticPr fontId="18" type="noConversion"/>
+    <phoneticPr fontId="19" type="noConversion"/>
+  </si>
+  <si>
+    <t>韩智凯</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银三星资料整理，滴滴贷款交流，</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>中银三星资料整理，滴滴贷款交流，</t>
+  </si>
+  <si>
+    <t>滴滴业务流程梳理</t>
+  </si>
+  <si>
+    <t>郑州银行供应链平台交流（外出）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇报PPT准备</t>
+  </si>
+  <si>
+    <t>产品汇报</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>人人贷技术交流（外出）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒天明泽接口使用指导，系统升级（外出）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weekly schedule</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>郑州银行消费金融无纸化项目（外出）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>中原银行车贷交流（外出）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回北京 相关文档编写（外出）</t>
+  </si>
+  <si>
+    <t>中银三星保险一体机变更测试（外出）</t>
+  </si>
+  <si>
+    <t>无纸化一体机需求讨论</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒天明泽基金现场技术交流后出差郑州（外出）</t>
+  </si>
+  <si>
+    <t xml:space="preserve">郑州银行消费金融实施细节讨论然后百瑞信托技术解答（外出） </t>
+  </si>
+  <si>
+    <t xml:space="preserve">中原农业保险OA电子签章技术交流（外出） </t>
+  </si>
+  <si>
+    <t>中保登RA项目启动（外出）</t>
+    <phoneticPr fontId="17" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">中银三星保险项目启动，需求讨论（外出） </t>
+    <phoneticPr fontId="17" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -298,12 +372,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="m&quot;月&quot;d&quot;日&quot;\ dddd"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="DengXian"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -592,6 +673,231 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -601,222 +907,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -826,6 +916,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -838,175 +934,169 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="22" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="21" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="94">
@@ -1413,28 +1503,30 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:K9"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="15" width="26.625" customWidth="1"/>
+    <col min="1" max="1" width="9" style="49"/>
+    <col min="2" max="15" width="26.625" style="49" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G1" s="30">
         <f>WEEKNUM(B2)</f>
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="H1" s="31"/>
       <c r="I1" s="31"/>
@@ -1446,144 +1538,144 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
-        <f>DATE(2017,9,11)</f>
-        <v>42989</v>
-      </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="B2" s="38">
+        <f>DATE(2017,10,23)</f>
+        <v>43031</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
-        <v>42990</v>
-      </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+        <v>43032</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
-        <v>42991</v>
-      </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
-        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
-        <v>42992</v>
-      </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
-        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
-        <v>42993</v>
-      </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
-        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
-        <v>42994</v>
-      </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
-        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
-        <v>42995</v>
-      </c>
-      <c r="O2" s="36"/>
+        <v>43033</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f>SUM(F2+1)</f>
+        <v>43034</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43035</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43036</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43037</v>
+      </c>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
-      <c r="B3" s="34" t="s">
-        <v>60</v>
-      </c>
-      <c r="C3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N3" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="27">
       <c r="A4" s="28" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D4" s="28" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="F4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G4" s="28" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="H4" s="28" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="I4" s="28" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="J4" s="28" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="K4" s="28" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="L4" s="28"/>
       <c r="M4" s="28"/>
       <c r="N4" s="28"/>
-      <c r="O4" s="35"/>
+      <c r="O4" s="37"/>
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
-    <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
       <c r="G6" s="30">
         <f>WEEKNUM(B7)</f>
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="H6" s="31"/>
       <c r="I6" s="31"/>
@@ -1595,128 +1687,128 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="38">
         <f>B2+7</f>
-        <v>42996</v>
-      </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
-        <f t="shared" ref="D7" si="5">D2+7</f>
-        <v>42997</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
-        <f t="shared" ref="F7" si="6">F2+7</f>
-        <v>42998</v>
-      </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
-        <f t="shared" ref="H7" si="7">H2+7</f>
-        <v>42999</v>
-      </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
-        <f t="shared" ref="J7" si="8">J2+7</f>
-        <v>43000</v>
-      </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
-        <f t="shared" ref="L7" si="9">L2+7</f>
-        <v>43001</v>
-      </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
-        <f t="shared" ref="N7" si="10">N2+7</f>
-        <v>43002</v>
-      </c>
-      <c r="O7" s="36"/>
+        <v>43038</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f>D2+7</f>
+        <v>43039</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f>F2+7</f>
+        <v>43040</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f>H2+7</f>
+        <v>43041</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f>J2+7</f>
+        <v>43042</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f>L2+7</f>
+        <v>43043</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f>N2+7</f>
+        <v>43044</v>
+      </c>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
-      <c r="B8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="J8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="L8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="N8" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" s="34" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="27">
       <c r="A9" s="28" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="F9" s="28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="G9" s="28" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="H9" s="28" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="I9" s="28" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="J9" s="28" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="K9" s="28" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="L9" s="28"/>
       <c r="M9" s="28"/>
       <c r="N9" s="28"/>
-      <c r="O9" s="35"/>
+      <c r="O9" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -1739,12 +1831,686 @@
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="H2:I2"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="9" style="49"/>
+    <col min="2" max="15" width="26.625" style="49" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="49"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="25.5">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>41</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,10,9)</f>
+        <v>43017</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>43018</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>43019</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f>SUM(F2+1)</f>
+        <v>43020</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="1">SUM(H2+1)</f>
+        <v>43021</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="2">SUM(J2+1)</f>
+        <v>43022</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="3">SUM(L2+1)</f>
+        <v>43023</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="40.5">
+      <c r="A4" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="37"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="25.5">
+      <c r="A6" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>42</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>43024</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f>D2+7</f>
+        <v>43025</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f>F2+7</f>
+        <v>43026</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f>H2+7</f>
+        <v>43027</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f>J2+7</f>
+        <v>43028</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f>L2+7</f>
+        <v>43029</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f>N2+7</f>
+        <v>43030</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="36" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="27">
+      <c r="A9" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="37"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9:K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="15" width="26.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A1" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="30">
+        <f>WEEKNUM(B2)</f>
+        <v>37</v>
+      </c>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+    </row>
+    <row r="2" spans="1:15" ht="30" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="38">
+        <f>DATE(2017,9,11)</f>
+        <v>42989</v>
+      </c>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
+        <f>SUM(B2+1)</f>
+        <v>42990</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
+        <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
+        <v>42991</v>
+      </c>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
+        <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
+        <v>42992</v>
+      </c>
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
+        <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
+        <v>42993</v>
+      </c>
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
+        <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
+        <v>42994</v>
+      </c>
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
+        <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
+        <v>42995</v>
+      </c>
+      <c r="O2" s="38"/>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="40"/>
+      <c r="B3" s="34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M3" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N3" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="28" t="s">
+        <v>78</v>
+      </c>
+      <c r="I4" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="K4" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="L4" s="28"/>
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="35"/>
+    </row>
+    <row r="5" spans="1:15" ht="24" customHeight="1"/>
+    <row r="6" spans="1:15" ht="33.75" customHeight="1">
+      <c r="A6" s="39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
+      <c r="F6" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="30">
+        <f>WEEKNUM(B7)</f>
+        <v>38</v>
+      </c>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="31"/>
+      <c r="N6" s="31"/>
+      <c r="O6" s="31"/>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="38">
+        <f>B2+7</f>
+        <v>42996</v>
+      </c>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
+        <f t="shared" ref="D7" si="5">D2+7</f>
+        <v>42997</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
+        <f t="shared" ref="F7" si="6">F2+7</f>
+        <v>42998</v>
+      </c>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
+        <f t="shared" ref="H7" si="7">H2+7</f>
+        <v>42999</v>
+      </c>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
+        <f t="shared" ref="J7" si="8">J2+7</f>
+        <v>43000</v>
+      </c>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
+        <f t="shared" ref="L7" si="9">L2+7</f>
+        <v>43001</v>
+      </c>
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
+        <f t="shared" ref="N7" si="10">N2+7</f>
+        <v>43002</v>
+      </c>
+      <c r="O7" s="38"/>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="40"/>
+      <c r="B8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="E8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="K8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="M8" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="N8" s="34" t="s">
+        <v>2</v>
+      </c>
+      <c r="O8" s="34" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="1" customFormat="1" ht="60" customHeight="1">
+      <c r="A9" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="K9" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
+      <c r="O9" s="35"/>
+    </row>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+  </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O9"/>
   <sheetViews>
@@ -1759,13 +2525,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
       <c r="F1" s="29" t="s">
         <v>58</v>
       </c>
@@ -1783,47 +2549,47 @@
       <c r="O1" s="31"/>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B2" s="36">
+      <c r="B2" s="38">
         <f>DATE(2017,6,26)</f>
         <v>42912</v>
       </c>
-      <c r="C2" s="36"/>
-      <c r="D2" s="36">
+      <c r="C2" s="38"/>
+      <c r="D2" s="38">
         <f>SUM(B2+1)</f>
         <v>42913</v>
       </c>
-      <c r="E2" s="36"/>
-      <c r="F2" s="36">
+      <c r="E2" s="38"/>
+      <c r="F2" s="38">
         <f t="shared" ref="F2" si="0">SUM(D2+1)</f>
         <v>42914</v>
       </c>
-      <c r="G2" s="36"/>
-      <c r="H2" s="36">
+      <c r="G2" s="38"/>
+      <c r="H2" s="38">
         <f t="shared" ref="H2" si="1">SUM(F2+1)</f>
         <v>42915</v>
       </c>
-      <c r="I2" s="36"/>
-      <c r="J2" s="36">
+      <c r="I2" s="38"/>
+      <c r="J2" s="38">
         <f t="shared" ref="J2" si="2">SUM(H2+1)</f>
         <v>42916</v>
       </c>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36">
+      <c r="K2" s="38"/>
+      <c r="L2" s="38">
         <f t="shared" ref="L2" si="3">SUM(J2+1)</f>
         <v>42917</v>
       </c>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36">
+      <c r="M2" s="38"/>
+      <c r="N2" s="38">
         <f t="shared" ref="N2" si="4">SUM(L2+1)</f>
         <v>42918</v>
       </c>
-      <c r="O2" s="36"/>
+      <c r="O2" s="38"/>
     </row>
     <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="38"/>
+      <c r="A3" s="40"/>
       <c r="B3" s="32" t="s">
         <v>60</v>
       </c>
@@ -1908,13 +2674,13 @@
     </row>
     <row r="5" spans="1:15" ht="24" customHeight="1"/>
     <row r="6" spans="1:15" ht="33.75" customHeight="1">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="39"/>
+      <c r="E6" s="39"/>
       <c r="F6" s="29" t="s">
         <v>58</v>
       </c>
@@ -1932,47 +2698,47 @@
       <c r="O6" s="31"/>
     </row>
     <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="36">
+      <c r="B7" s="38">
         <f>B2+7</f>
         <v>42919</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36">
+      <c r="C7" s="38"/>
+      <c r="D7" s="38">
         <f t="shared" ref="D7" si="5">D2+7</f>
         <v>42920</v>
       </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36">
+      <c r="E7" s="38"/>
+      <c r="F7" s="38">
         <f t="shared" ref="F7" si="6">F2+7</f>
         <v>42921</v>
       </c>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36">
+      <c r="G7" s="38"/>
+      <c r="H7" s="38">
         <f t="shared" ref="H7" si="7">H2+7</f>
         <v>42922</v>
       </c>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36">
+      <c r="I7" s="38"/>
+      <c r="J7" s="38">
         <f t="shared" ref="J7" si="8">J2+7</f>
         <v>42923</v>
       </c>
-      <c r="K7" s="36"/>
-      <c r="L7" s="36">
+      <c r="K7" s="38"/>
+      <c r="L7" s="38">
         <f t="shared" ref="L7" si="9">L2+7</f>
         <v>42924</v>
       </c>
-      <c r="M7" s="36"/>
-      <c r="N7" s="36">
+      <c r="M7" s="38"/>
+      <c r="N7" s="38">
         <f t="shared" ref="N7" si="10">N2+7</f>
         <v>42925</v>
       </c>
-      <c r="O7" s="36"/>
+      <c r="O7" s="38"/>
     </row>
     <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="38"/>
+      <c r="A8" s="40"/>
       <c r="B8" s="32" t="s">
         <v>2</v>
       </c>
@@ -2057,11 +2823,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="L7:M7"/>
-    <mergeCell ref="N7:O7"/>
-    <mergeCell ref="J2:K2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="J7:K7"/>
     <mergeCell ref="A1:E1"/>
@@ -2075,14 +2836,19 @@
     <mergeCell ref="B7:C7"/>
     <mergeCell ref="D7:E7"/>
     <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L7:M7"/>
+    <mergeCell ref="N7:O7"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N37"/>
   <sheetViews>
@@ -2098,32 +2864,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41" t="s">
+      <c r="D1" s="47"/>
+      <c r="E1" s="48" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41" t="s">
+      <c r="F1" s="48"/>
+      <c r="G1" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41" t="s">
+      <c r="H1" s="48"/>
+      <c r="I1" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="41"/>
-      <c r="K1" s="39" t="s">
+      <c r="J1" s="48"/>
+      <c r="K1" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="L1" s="40"/>
+      <c r="L1" s="47"/>
       <c r="M1" s="2" t="s">
         <v>41</v>
       </c>
@@ -2132,8 +2898,8 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="24.95" customHeight="1">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
+      <c r="A2" s="45"/>
+      <c r="B2" s="45"/>
       <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2188,7 +2954,7 @@
       <c r="N3" s="24"/>
     </row>
     <row r="4" spans="1:14" ht="30" customHeight="1">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="43" t="s">
         <v>43</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -2208,7 +2974,7 @@
       <c r="N4" s="24"/>
     </row>
     <row r="5" spans="1:14" ht="30" customHeight="1">
-      <c r="A5" s="42"/>
+      <c r="A5" s="41"/>
       <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
@@ -2226,7 +2992,7 @@
       <c r="N5" s="24"/>
     </row>
     <row r="6" spans="1:14" ht="30" customHeight="1">
-      <c r="A6" s="43"/>
+      <c r="A6" s="42"/>
       <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
@@ -2244,7 +3010,7 @@
       <c r="N6" s="24"/>
     </row>
     <row r="7" spans="1:14" ht="30" customHeight="1">
-      <c r="A7" s="44" t="s">
+      <c r="A7" s="43" t="s">
         <v>44</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -2264,7 +3030,7 @@
       <c r="N7" s="24"/>
     </row>
     <row r="8" spans="1:14" ht="30" customHeight="1">
-      <c r="A8" s="42"/>
+      <c r="A8" s="41"/>
       <c r="B8" s="7" t="s">
         <v>45</v>
       </c>
@@ -2282,7 +3048,7 @@
       <c r="N8" s="24"/>
     </row>
     <row r="9" spans="1:14" ht="30" customHeight="1">
-      <c r="A9" s="43"/>
+      <c r="A9" s="42"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
       </c>
@@ -2300,7 +3066,7 @@
       <c r="N9" s="24"/>
     </row>
     <row r="10" spans="1:14" ht="30" customHeight="1">
-      <c r="A10" s="44" t="s">
+      <c r="A10" s="43" t="s">
         <v>46</v>
       </c>
       <c r="B10" s="7" t="s">
@@ -2320,7 +3086,7 @@
       <c r="N10" s="24"/>
     </row>
     <row r="11" spans="1:14" ht="30" customHeight="1">
-      <c r="A11" s="42"/>
+      <c r="A11" s="41"/>
       <c r="B11" s="7" t="s">
         <v>13</v>
       </c>
@@ -2338,7 +3104,7 @@
       <c r="N11" s="24"/>
     </row>
     <row r="12" spans="1:14" ht="30" customHeight="1">
-      <c r="A12" s="43"/>
+      <c r="A12" s="42"/>
       <c r="B12" s="7" t="s">
         <v>14</v>
       </c>
@@ -2376,7 +3142,7 @@
       <c r="N13" s="24"/>
     </row>
     <row r="14" spans="1:14" ht="30" customHeight="1">
-      <c r="A14" s="44" t="s">
+      <c r="A14" s="43" t="s">
         <v>47</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -2396,7 +3162,7 @@
       <c r="N14" s="24"/>
     </row>
     <row r="15" spans="1:14" ht="30" customHeight="1">
-      <c r="A15" s="42"/>
+      <c r="A15" s="41"/>
       <c r="B15" s="3" t="s">
         <v>48</v>
       </c>
@@ -2414,7 +3180,7 @@
       <c r="N15" s="24"/>
     </row>
     <row r="16" spans="1:14" ht="30" customHeight="1">
-      <c r="A16" s="43"/>
+      <c r="A16" s="42"/>
       <c r="B16" s="3" t="s">
         <v>49</v>
       </c>
@@ -2432,7 +3198,7 @@
       <c r="N16" s="24"/>
     </row>
     <row r="17" spans="1:14" ht="30" customHeight="1">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="41" t="s">
         <v>50</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -2452,7 +3218,7 @@
       <c r="N17" s="24"/>
     </row>
     <row r="18" spans="1:14" ht="30" customHeight="1">
-      <c r="A18" s="42"/>
+      <c r="A18" s="41"/>
       <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
@@ -2470,7 +3236,7 @@
       <c r="N18" s="24"/>
     </row>
     <row r="19" spans="1:14" ht="30" customHeight="1">
-      <c r="A19" s="43"/>
+      <c r="A19" s="42"/>
       <c r="B19" s="3" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +3254,7 @@
       <c r="N19" s="24"/>
     </row>
     <row r="20" spans="1:14" ht="30" customHeight="1">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="43" t="s">
         <v>51</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -2508,7 +3274,7 @@
       <c r="N20" s="24"/>
     </row>
     <row r="21" spans="1:14" ht="30" customHeight="1">
-      <c r="A21" s="42"/>
+      <c r="A21" s="41"/>
       <c r="B21" s="3" t="s">
         <v>24</v>
       </c>
@@ -2526,7 +3292,7 @@
       <c r="N21" s="24"/>
     </row>
     <row r="22" spans="1:14" ht="30" customHeight="1">
-      <c r="A22" s="43"/>
+      <c r="A22" s="42"/>
       <c r="B22" s="3" t="s">
         <v>25</v>
       </c>
@@ -2584,7 +3350,7 @@
       <c r="N24" s="23"/>
     </row>
     <row r="25" spans="1:14" ht="30" customHeight="1">
-      <c r="A25" s="44" t="s">
+      <c r="A25" s="43" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -2604,7 +3370,7 @@
       <c r="N25" s="23"/>
     </row>
     <row r="26" spans="1:14" ht="30" customHeight="1">
-      <c r="A26" s="43"/>
+      <c r="A26" s="42"/>
       <c r="B26" s="3" t="s">
         <v>28</v>
       </c>
@@ -2622,7 +3388,7 @@
       <c r="N26" s="24"/>
     </row>
     <row r="27" spans="1:14" ht="30" customHeight="1">
-      <c r="A27" s="45" t="s">
+      <c r="A27" s="44" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -2642,7 +3408,7 @@
       <c r="N27" s="24"/>
     </row>
     <row r="28" spans="1:14" ht="30" customHeight="1">
-      <c r="A28" s="45"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="3" t="s">
         <v>30</v>
       </c>
@@ -2660,7 +3426,7 @@
       <c r="N28" s="24"/>
     </row>
     <row r="29" spans="1:14" ht="30" customHeight="1">
-      <c r="A29" s="45"/>
+      <c r="A29" s="44"/>
       <c r="B29" s="3" t="s">
         <v>19</v>
       </c>
@@ -2678,7 +3444,7 @@
       <c r="N29" s="24"/>
     </row>
     <row r="30" spans="1:14" ht="30" customHeight="1">
-      <c r="A30" s="45"/>
+      <c r="A30" s="44"/>
       <c r="B30" s="3" t="s">
         <v>31</v>
       </c>
@@ -2696,7 +3462,7 @@
       <c r="N30" s="24"/>
     </row>
     <row r="31" spans="1:14" ht="30" customHeight="1">
-      <c r="A31" s="45"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="3" t="s">
         <v>56</v>
       </c>
@@ -2714,7 +3480,7 @@
       <c r="N31" s="24"/>
     </row>
     <row r="32" spans="1:14" ht="30" customHeight="1">
-      <c r="A32" s="45"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="3" t="s">
         <v>32</v>
       </c>
@@ -2732,7 +3498,7 @@
       <c r="N32" s="24"/>
     </row>
     <row r="33" spans="1:14" ht="30" customHeight="1">
-      <c r="A33" s="45"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="3" t="s">
         <v>33</v>
       </c>
@@ -2750,7 +3516,7 @@
       <c r="N33" s="24"/>
     </row>
     <row r="34" spans="1:14" ht="30" customHeight="1">
-      <c r="A34" s="45"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="3" t="s">
         <v>15</v>
       </c>
@@ -2768,7 +3534,7 @@
       <c r="N34" s="24"/>
     </row>
     <row r="35" spans="1:14" ht="30" customHeight="1">
-      <c r="A35" s="45"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="3" t="s">
         <v>34</v>
       </c>
@@ -2786,7 +3552,7 @@
       <c r="N35" s="24"/>
     </row>
     <row r="36" spans="1:14" ht="30" customHeight="1">
-      <c r="A36" s="45"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="3" t="s">
         <v>7</v>
       </c>
@@ -2804,7 +3570,7 @@
       <c r="N36" s="24"/>
     </row>
     <row r="37" spans="1:14" ht="30" customHeight="1">
-      <c r="A37" s="45"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="3" t="s">
         <v>35</v>
       </c>
@@ -2823,6 +3589,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="I1:J1"/>
+    <mergeCell ref="K1:L1"/>
     <mergeCell ref="A17:A19"/>
     <mergeCell ref="A20:A22"/>
     <mergeCell ref="A25:A26"/>
@@ -2833,13 +3604,8 @@
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A14:A16"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-    <mergeCell ref="K1:L1"/>
   </mergeCells>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <phoneticPr fontId="17" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
